--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$177</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5992" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6056" uniqueCount="775">
   <si>
     <t>Path</t>
   </si>
@@ -1362,6 +1362,16 @@
     <t>Claim.diagnosis.extension</t>
   </si>
   <si>
+    <t>majorDiagnosticCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/major-diagnostic-category}
+</t>
+  </si>
+  <si>
+    <t>The body system or disease related groupings of clinical conditions, based on diagnosis codes</t>
+  </si>
+  <si>
     <t>Claim.diagnosis.modifierExtension</t>
   </si>
   <si>
@@ -1478,6 +1488,16 @@
   </si>
   <si>
     <t>Claim.procedure.extension</t>
+  </si>
+  <si>
+    <t>procedureGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/procedure-group}
+</t>
+  </si>
+  <si>
+    <t>Groups assigned to categorize related procedures</t>
   </si>
   <si>
     <t>Claim.procedure.modifierExtension</t>
@@ -2538,7 +2558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL175"/>
+  <dimension ref="A1:AL177"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10615,7 +10635,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10637,14 +10657,12 @@
         <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>42</v>
@@ -10681,16 +10699,14 @@
         <v>42</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB75" s="2"/>
       <c r="AC75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE75" t="s" s="2">
         <v>142</v>
@@ -10714,48 +10730,46 @@
         <v>42</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>96</v>
+        <v>433</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>284</v>
+        <v>434</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>42</v>
       </c>
@@ -10803,7 +10817,7 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -10812,7 +10826,7 @@
         <v>41</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>102</v>
@@ -10829,42 +10843,42 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>434</v>
+        <v>284</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>436</v>
+        <v>122</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>437</v>
+        <v>123</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -10913,19 +10927,19 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>433</v>
+        <v>286</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>42</v>
@@ -10934,12 +10948,12 @@
         <v>42</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10962,17 +10976,19 @@
         <v>42</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -10997,13 +11013,13 @@
         <v>42</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>443</v>
+        <v>42</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>444</v>
+        <v>42</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>42</v>
@@ -11021,7 +11037,7 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>50</v>
@@ -11047,7 +11063,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11055,10 +11071,10 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>42</v>
@@ -11070,19 +11086,17 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>154</v>
+        <v>442</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -11110,10 +11124,10 @@
         <v>211</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>42</v>
@@ -11131,13 +11145,13 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>42</v>
@@ -11157,7 +11171,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11168,7 +11182,7 @@
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -11183,14 +11197,16 @@
         <v>154</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="N80" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -11218,10 +11234,10 @@
         <v>211</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>42</v>
@@ -11239,13 +11255,13 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>42</v>
@@ -11265,7 +11281,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11291,16 +11307,14 @@
         <v>154</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>42</v>
@@ -11328,10 +11342,10 @@
         <v>211</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>42</v>
@@ -11349,7 +11363,7 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -11375,7 +11389,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11386,7 +11400,7 @@
         <v>40</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>42</v>
@@ -11398,17 +11412,19 @@
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="N82" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -11433,13 +11449,13 @@
         <v>42</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>42</v>
+        <v>466</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>42</v>
+        <v>467</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>42</v>
@@ -11457,13 +11473,13 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>42</v>
@@ -11483,7 +11499,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11494,7 +11510,7 @@
         <v>40</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>42</v>
@@ -11506,16 +11522,18 @@
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>134</v>
+        <v>469</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>135</v>
+        <v>470</v>
       </c>
       <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
       </c>
@@ -11563,19 +11581,19 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>136</v>
+        <v>468</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>42</v>
@@ -11584,23 +11602,23 @@
         <v>42</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>42</v>
@@ -11612,17 +11630,15 @@
         <v>42</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>42</v>
@@ -11671,19 +11687,19 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>42</v>
@@ -11697,11 +11713,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11714,26 +11730,22 @@
         <v>42</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>284</v>
+        <v>97</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>42</v>
       </c>
@@ -11769,19 +11781,17 @@
         <v>42</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB85" s="2"/>
       <c r="AC85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -11802,20 +11812,22 @@
         <v>42</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="C86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>50</v>
@@ -11830,18 +11842,16 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>355</v>
+        <v>475</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>475</v>
-      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>42</v>
       </c>
@@ -11889,19 +11899,19 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>472</v>
+        <v>142</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>42</v>
@@ -11910,16 +11920,16 @@
         <v>42</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11932,25 +11942,25 @@
         <v>42</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>477</v>
+        <v>284</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>447</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>478</v>
+        <v>122</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>449</v>
+        <v>123</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>42</v>
@@ -11975,13 +11985,13 @@
         <v>42</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>479</v>
+        <v>42</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>480</v>
+        <v>42</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>42</v>
@@ -11999,7 +12009,7 @@
         <v>42</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>476</v>
+        <v>286</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -12011,7 +12021,7 @@
         <v>42</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>42</v>
@@ -12020,12 +12030,12 @@
         <v>42</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12033,7 +12043,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>50</v>
@@ -12048,17 +12058,17 @@
         <v>42</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>42</v>
@@ -12107,10 +12117,10 @@
         <v>42</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>50</v>
@@ -12133,7 +12143,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12141,10 +12151,10 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>42</v>
@@ -12156,17 +12166,19 @@
         <v>42</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>486</v>
+        <v>154</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="N89" t="s" s="2">
-        <v>489</v>
+        <v>452</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>42</v>
@@ -12194,10 +12206,10 @@
         <v>211</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>42</v>
@@ -12215,13 +12227,13 @@
         <v>42</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>42</v>
@@ -12241,7 +12253,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12252,7 +12264,7 @@
         <v>40</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>42</v>
@@ -12264,17 +12276,17 @@
         <v>42</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>493</v>
+        <v>234</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>42</v>
@@ -12323,13 +12335,13 @@
         <v>42</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>42</v>
@@ -12349,7 +12361,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12360,7 +12372,7 @@
         <v>50</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>42</v>
@@ -12369,22 +12381,20 @@
         <v>42</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>275</v>
+        <v>492</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>42</v>
@@ -12409,13 +12419,13 @@
         <v>42</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>42</v>
+        <v>496</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>42</v>
+        <v>497</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>42</v>
@@ -12433,13 +12443,13 @@
         <v>42</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>42</v>
@@ -12454,12 +12464,12 @@
         <v>42</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>502</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12470,7 +12480,7 @@
         <v>40</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>42</v>
@@ -12482,16 +12492,18 @@
         <v>42</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>52</v>
+        <v>499</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>134</v>
+        <v>500</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>135</v>
+        <v>501</v>
       </c>
       <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>42</v>
       </c>
@@ -12539,19 +12551,19 @@
         <v>42</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>136</v>
+        <v>498</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>42</v>
@@ -12560,20 +12572,20 @@
         <v>42</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>41</v>
@@ -12585,21 +12597,23 @@
         <v>42</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>139</v>
+        <v>504</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>140</v>
+        <v>505</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>42</v>
       </c>
@@ -12647,10 +12661,10 @@
         <v>42</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>142</v>
+        <v>503</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>41</v>
@@ -12659,7 +12673,7 @@
         <v>42</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>42</v>
@@ -12668,48 +12682,44 @@
         <v>42</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>137</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>42</v>
       </c>
@@ -12757,19 +12767,19 @@
         <v>42</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>42</v>
@@ -12778,23 +12788,23 @@
         <v>42</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>42</v>
@@ -12803,21 +12813,21 @@
         <v>42</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>507</v>
+        <v>139</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>42</v>
       </c>
@@ -12865,19 +12875,19 @@
         <v>42</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>506</v>
+        <v>142</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>42</v>
@@ -12886,47 +12896,47 @@
         <v>42</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>366</v>
+        <v>96</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>511</v>
+        <v>284</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>512</v>
+        <v>285</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>513</v>
+        <v>122</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>514</v>
+        <v>123</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>42</v>
@@ -12975,19 +12985,19 @@
         <v>42</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>510</v>
+        <v>286</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>42</v>
@@ -12996,12 +13006,12 @@
         <v>42</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13009,7 +13019,7 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>50</v>
@@ -13021,22 +13031,20 @@
         <v>42</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>127</v>
+        <v>355</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>42</v>
@@ -13085,10 +13093,10 @@
         <v>42</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>50</v>
@@ -13100,10 +13108,10 @@
         <v>63</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>42</v>
@@ -13111,7 +13119,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13134,17 +13142,19 @@
         <v>51</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>521</v>
+        <v>366</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="N98" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>42</v>
@@ -13193,7 +13203,7 @@
         <v>42</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>50</v>
@@ -13219,7 +13229,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13242,17 +13252,19 @@
         <v>42</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="N99" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>42</v>
@@ -13301,7 +13313,7 @@
         <v>42</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -13316,10 +13328,10 @@
         <v>63</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>42</v>
@@ -13327,7 +13339,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13335,10 +13347,10 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>42</v>
@@ -13347,22 +13359,20 @@
         <v>42</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>52</v>
+        <v>527</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>42</v>
@@ -13411,13 +13421,13 @@
         <v>42</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>42</v>
@@ -13437,7 +13447,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13460,19 +13470,17 @@
         <v>42</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>535</v>
+        <v>52</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>42</v>
@@ -13521,7 +13529,7 @@
         <v>42</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -13547,7 +13555,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13558,7 +13566,7 @@
         <v>40</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>42</v>
@@ -13570,17 +13578,19 @@
         <v>42</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>275</v>
+        <v>52</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="N102" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>42</v>
@@ -13629,13 +13639,13 @@
         <v>42</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>42</v>
@@ -13655,7 +13665,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13678,16 +13688,20 @@
         <v>42</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>52</v>
+        <v>541</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>134</v>
+        <v>542</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>42</v>
       </c>
@@ -13735,7 +13749,7 @@
         <v>42</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>136</v>
+        <v>540</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
@@ -13747,7 +13761,7 @@
         <v>42</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>42</v>
@@ -13756,23 +13770,23 @@
         <v>42</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>42</v>
@@ -13784,18 +13798,18 @@
         <v>42</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>139</v>
+        <v>547</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>42</v>
       </c>
@@ -13843,19 +13857,19 @@
         <v>42</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>142</v>
+        <v>546</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>42</v>
@@ -13864,48 +13878,44 @@
         <v>42</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>42</v>
       </c>
@@ -13953,19 +13963,19 @@
         <v>42</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>42</v>
@@ -13974,23 +13984,23 @@
         <v>42</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>42</v>
@@ -14002,20 +14012,18 @@
         <v>42</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>548</v>
+        <v>96</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>549</v>
+        <v>139</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>550</v>
+        <v>140</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>42</v>
       </c>
@@ -14063,19 +14071,19 @@
         <v>42</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>547</v>
+        <v>142</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>42</v>
@@ -14084,45 +14092,47 @@
         <v>42</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>554</v>
+        <v>284</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N107" t="s" s="2">
-        <v>556</v>
+        <v>123</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>42</v>
@@ -14147,13 +14157,13 @@
         <v>42</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>557</v>
+        <v>42</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>558</v>
+        <v>42</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>42</v>
@@ -14171,19 +14181,19 @@
         <v>42</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>553</v>
+        <v>286</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>42</v>
@@ -14192,12 +14202,12 @@
         <v>42</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14205,7 +14215,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>50</v>
@@ -14220,17 +14230,19 @@
         <v>42</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M108" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="N108" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>42</v>
@@ -14279,10 +14291,10 @@
         <v>42</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>50</v>
@@ -14305,7 +14317,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14316,7 +14328,7 @@
         <v>40</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>42</v>
@@ -14328,17 +14340,17 @@
         <v>42</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>42</v>
@@ -14363,13 +14375,13 @@
         <v>42</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>42</v>
+        <v>563</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>42</v>
+        <v>564</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>42</v>
@@ -14387,13 +14399,13 @@
         <v>42</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>42</v>
@@ -14413,7 +14425,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14436,16 +14448,18 @@
         <v>42</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>134</v>
+        <v>567</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>135</v>
+        <v>568</v>
       </c>
       <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>42</v>
       </c>
@@ -14493,7 +14507,7 @@
         <v>42</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>136</v>
+        <v>565</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -14505,7 +14519,7 @@
         <v>42</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>42</v>
@@ -14514,12 +14528,12 @@
         <v>42</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14542,16 +14556,18 @@
         <v>42</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>97</v>
+        <v>571</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>98</v>
+        <v>572</v>
       </c>
       <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+      <c r="N111" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>42</v>
       </c>
@@ -14587,17 +14603,19 @@
         <v>42</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB111" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC111" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>142</v>
+        <v>570</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -14609,7 +14627,7 @@
         <v>42</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>42</v>
@@ -14623,11 +14641,9 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>42</v>
       </c>
@@ -14648,13 +14664,13 @@
         <v>42</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>571</v>
+        <v>52</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>572</v>
+        <v>134</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>572</v>
+        <v>135</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14705,19 +14721,19 @@
         <v>42</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>42</v>
@@ -14726,16 +14742,14 @@
         <v>42</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>42</v>
       </c>
@@ -14744,7 +14758,7 @@
         <v>40</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>42</v>
@@ -14756,13 +14770,13 @@
         <v>42</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>574</v>
+        <v>96</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>575</v>
+        <v>97</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>575</v>
+        <v>98</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14801,16 +14815,14 @@
         <v>42</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB113" s="2"/>
       <c r="AC113" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE113" t="s" s="2">
         <v>142</v>
@@ -14822,7 +14834,7 @@
         <v>41</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>102</v>
@@ -14834,12 +14846,12 @@
         <v>42</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>576</v>
@@ -14930,7 +14942,7 @@
         <v>41</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>102</v>
@@ -14947,43 +14959,41 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B115" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>96</v>
+        <v>580</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>284</v>
+        <v>581</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>42</v>
       </c>
@@ -15031,7 +15041,7 @@
         <v>42</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>40</v>
@@ -15040,7 +15050,7 @@
         <v>41</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>102</v>
@@ -15057,15 +15067,17 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B116" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>582</v>
+      </c>
       <c r="C116" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>50</v>
@@ -15080,18 +15092,16 @@
         <v>42</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>355</v>
+        <v>583</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M116" s="2"/>
-      <c r="N116" t="s" s="2">
-        <v>583</v>
-      </c>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>42</v>
       </c>
@@ -15139,19 +15149,19 @@
         <v>42</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>580</v>
+        <v>142</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>42</v>
@@ -15160,16 +15170,16 @@
         <v>42</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15182,23 +15192,25 @@
         <v>42</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>585</v>
+        <v>284</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M117" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N117" t="s" s="2">
-        <v>587</v>
+        <v>123</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>42</v>
@@ -15247,7 +15259,7 @@
         <v>42</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>584</v>
+        <v>286</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -15259,7 +15271,7 @@
         <v>42</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>42</v>
@@ -15268,12 +15280,12 @@
         <v>42</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15281,10 +15293,10 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>42</v>
@@ -15299,14 +15311,14 @@
         <v>355</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>42</v>
@@ -15355,13 +15367,13 @@
         <v>42</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>42</v>
@@ -15381,7 +15393,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15407,14 +15419,14 @@
         <v>355</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>42</v>
@@ -15463,7 +15475,7 @@
         <v>42</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -15489,7 +15501,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15515,14 +15527,14 @@
         <v>355</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>42</v>
@@ -15571,7 +15583,7 @@
         <v>42</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
@@ -15597,7 +15609,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15608,7 +15620,7 @@
         <v>40</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>42</v>
@@ -15620,17 +15632,17 @@
         <v>42</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>42</v>
@@ -15655,13 +15667,13 @@
         <v>42</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>604</v>
+        <v>42</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>605</v>
+        <v>42</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>42</v>
@@ -15679,13 +15691,13 @@
         <v>42</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>42</v>
@@ -15705,7 +15717,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15716,7 +15728,7 @@
         <v>40</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>42</v>
@@ -15728,19 +15740,17 @@
         <v>42</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>42</v>
@@ -15765,13 +15775,13 @@
         <v>42</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>612</v>
+        <v>42</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>42</v>
@@ -15789,13 +15799,13 @@
         <v>42</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>42</v>
@@ -15815,15 +15825,15 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>614</v>
+        <v>42</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>50</v>
@@ -15841,16 +15851,14 @@
         <v>154</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>42</v>
@@ -15877,9 +15885,11 @@
       <c r="W123" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="X123" s="2"/>
+      <c r="X123" t="s" s="2">
+        <v>610</v>
+      </c>
       <c r="Y123" t="s" s="2">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>42</v>
@@ -15897,10 +15907,10 @@
         <v>42</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>50</v>
@@ -15923,7 +15933,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15934,7 +15944,7 @@
         <v>40</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>42</v>
@@ -15949,16 +15959,16 @@
         <v>154</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>42</v>
@@ -15986,10 +15996,10 @@
         <v>211</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>42</v>
@@ -16007,13 +16017,13 @@
         <v>42</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>42</v>
@@ -16033,18 +16043,18 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>42</v>
+        <v>620</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>42</v>
@@ -16059,16 +16069,16 @@
         <v>154</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>42</v>
@@ -16095,11 +16105,9 @@
       <c r="W125" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="X125" t="s" s="2">
-        <v>632</v>
-      </c>
+      <c r="X125" s="2"/>
       <c r="Y125" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>42</v>
@@ -16117,13 +16125,13 @@
         <v>42</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>42</v>
@@ -16143,7 +16151,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16154,7 +16162,7 @@
         <v>40</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>42</v>
@@ -16166,17 +16174,19 @@
         <v>42</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>409</v>
+        <v>154</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="N126" t="s" s="2">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>42</v>
@@ -16201,13 +16211,13 @@
         <v>42</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>42</v>
+        <v>631</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>42</v>
+        <v>632</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>42</v>
@@ -16225,13 +16235,13 @@
         <v>42</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>42</v>
@@ -16243,7 +16253,7 @@
         <v>42</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>42</v>
@@ -16251,7 +16261,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16262,7 +16272,7 @@
         <v>40</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>42</v>
@@ -16274,17 +16284,19 @@
         <v>42</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>639</v>
+        <v>154</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M127" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="N127" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>42</v>
@@ -16312,10 +16324,10 @@
         <v>211</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>42</v>
@@ -16333,13 +16345,13 @@
         <v>42</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>42</v>
@@ -16351,7 +16363,7 @@
         <v>42</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>42</v>
@@ -16359,7 +16371,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16382,17 +16394,17 @@
         <v>42</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>646</v>
+        <v>409</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>42</v>
@@ -16441,7 +16453,7 @@
         <v>42</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -16459,7 +16471,7 @@
         <v>42</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>42</v>
@@ -16467,7 +16479,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16490,16 +16502,18 @@
         <v>42</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>52</v>
+        <v>645</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>134</v>
+        <v>646</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>135</v>
+        <v>647</v>
       </c>
       <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>648</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>42</v>
       </c>
@@ -16523,13 +16537,13 @@
         <v>42</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>42</v>
+        <v>649</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>42</v>
+        <v>650</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>42</v>
@@ -16547,7 +16561,7 @@
         <v>42</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>136</v>
+        <v>644</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>40</v>
@@ -16559,16 +16573,16 @@
         <v>42</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" hidden="true">
@@ -16577,14 +16591,14 @@
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>42</v>
@@ -16596,18 +16610,18 @@
         <v>42</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>96</v>
+        <v>652</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>139</v>
+        <v>653</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" t="s" s="2">
+        <v>655</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>42</v>
       </c>
@@ -16643,31 +16657,31 @@
         <v>42</v>
       </c>
       <c r="AA130" t="s" s="2">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="AC130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD130" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>142</v>
+        <v>651</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>42</v>
@@ -16676,16 +16690,14 @@
         <v>42</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>652</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
         <v>42</v>
       </c>
@@ -16706,13 +16718,13 @@
         <v>42</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>653</v>
+        <v>52</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>654</v>
+        <v>134</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>654</v>
+        <v>135</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -16763,19 +16775,19 @@
         <v>42</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>42</v>
@@ -16784,23 +16796,23 @@
         <v>42</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>42</v>
@@ -16809,23 +16821,21 @@
         <v>42</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>656</v>
+        <v>96</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>657</v>
+        <v>139</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>658</v>
+        <v>140</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>660</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>42</v>
       </c>
@@ -16861,31 +16871,31 @@
         <v>42</v>
       </c>
       <c r="AA132" t="s" s="2">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="AB132" t="s" s="2">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="AC132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD132" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>661</v>
+        <v>142</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>42</v>
@@ -16894,14 +16904,16 @@
         <v>42</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>662</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="B133" s="2"/>
+        <v>657</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>658</v>
+      </c>
       <c r="C133" t="s" s="2">
         <v>42</v>
       </c>
@@ -16910,36 +16922,32 @@
         <v>40</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>72</v>
+        <v>659</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="M133" s="2"/>
-      <c r="N133" t="s" s="2">
-        <v>666</v>
-      </c>
+      <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P133" t="s" s="2">
-        <v>667</v>
-      </c>
+      <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
         <v>42</v>
       </c>
@@ -16959,13 +16967,13 @@
         <v>42</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>668</v>
+        <v>42</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>669</v>
+        <v>42</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>42</v>
@@ -16983,19 +16991,19 @@
         <v>42</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>670</v>
+        <v>142</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>42</v>
@@ -17004,12 +17012,12 @@
         <v>42</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>671</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17032,17 +17040,19 @@
         <v>51</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>52</v>
+        <v>662</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="M134" s="2"/>
+        <v>664</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>665</v>
+      </c>
       <c r="N134" t="s" s="2">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>42</v>
@@ -17091,7 +17101,7 @@
         <v>42</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>40</v>
@@ -17112,12 +17122,12 @@
         <v>42</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17128,34 +17138,36 @@
         <v>40</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" t="s" s="2">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P135" s="2"/>
+      <c r="P135" t="s" s="2">
+        <v>673</v>
+      </c>
       <c r="Q135" t="s" s="2">
         <v>42</v>
       </c>
@@ -17175,13 +17187,13 @@
         <v>42</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>42</v>
+        <v>674</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>42</v>
+        <v>675</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>42</v>
@@ -17199,7 +17211,7 @@
         <v>42</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -17208,7 +17220,7 @@
         <v>50</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>683</v>
+        <v>42</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>63</v>
@@ -17220,12 +17232,12 @@
         <v>42</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17248,19 +17260,17 @@
         <v>51</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>688</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>42</v>
@@ -17309,7 +17319,7 @@
         <v>42</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>40</v>
@@ -17330,12 +17340,12 @@
         <v>42</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17355,20 +17365,20 @@
         <v>42</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>693</v>
+        <v>66</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>42</v>
@@ -17417,7 +17427,7 @@
         <v>42</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
@@ -17426,7 +17436,7 @@
         <v>50</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>42</v>
+        <v>689</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>63</v>
@@ -17438,12 +17448,12 @@
         <v>42</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>42</v>
+        <v>690</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17463,22 +17473,22 @@
         <v>42</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>656</v>
+        <v>72</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>42</v>
@@ -17527,7 +17537,7 @@
         <v>42</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -17548,12 +17558,12 @@
         <v>42</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>42</v>
+        <v>697</v>
       </c>
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17576,19 +17586,17 @@
         <v>42</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>42</v>
@@ -17637,7 +17645,7 @@
         <v>42</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
@@ -17663,7 +17671,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17674,7 +17682,7 @@
         <v>40</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>42</v>
@@ -17686,17 +17694,19 @@
         <v>42</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>493</v>
+        <v>662</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>494</v>
+        <v>704</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M140" s="2"/>
+        <v>705</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>706</v>
+      </c>
       <c r="N140" t="s" s="2">
-        <v>496</v>
+        <v>707</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>42</v>
@@ -17745,13 +17755,13 @@
         <v>42</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>42</v>
@@ -17794,7 +17804,7 @@
         <v>42</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>154</v>
+        <v>699</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>709</v>
@@ -17831,13 +17841,13 @@
         <v>42</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>713</v>
+        <v>42</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>714</v>
+        <v>42</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>42</v>
@@ -17881,7 +17891,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17904,17 +17914,17 @@
         <v>42</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>154</v>
+        <v>499</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>716</v>
+        <v>500</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>717</v>
+        <v>501</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>712</v>
+        <v>502</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>42</v>
@@ -17939,13 +17949,13 @@
         <v>42</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>718</v>
+        <v>42</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>719</v>
+        <v>42</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>42</v>
@@ -17963,7 +17973,7 @@
         <v>42</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -17989,7 +17999,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18000,7 +18010,7 @@
         <v>40</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>42</v>
@@ -18012,19 +18022,19 @@
         <v>42</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>721</v>
+        <v>154</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>42</v>
@@ -18049,13 +18059,13 @@
         <v>42</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>42</v>
+        <v>719</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>42</v>
+        <v>720</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>42</v>
@@ -18073,13 +18083,13 @@
         <v>42</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>42</v>
@@ -18088,7 +18098,7 @@
         <v>63</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>726</v>
+        <v>42</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>42</v>
@@ -18099,7 +18109,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18122,17 +18132,17 @@
         <v>42</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>565</v>
+        <v>722</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>567</v>
+        <v>718</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>42</v>
@@ -18157,13 +18167,13 @@
         <v>42</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>42</v>
+        <v>724</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>42</v>
+        <v>725</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>42</v>
@@ -18181,7 +18191,7 @@
         <v>42</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -18207,7 +18217,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18218,7 +18228,7 @@
         <v>40</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>42</v>
@@ -18230,16 +18240,20 @@
         <v>42</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>52</v>
+        <v>727</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>134</v>
+        <v>728</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>731</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>42</v>
       </c>
@@ -18287,33 +18301,33 @@
         <v>42</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>136</v>
+        <v>726</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>42</v>
+        <v>732</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18336,16 +18350,18 @@
         <v>42</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>97</v>
+        <v>571</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>98</v>
+        <v>734</v>
       </c>
       <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
+      <c r="N146" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O146" t="s" s="2">
         <v>42</v>
       </c>
@@ -18381,17 +18397,19 @@
         <v>42</v>
       </c>
       <c r="AA146" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB146" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC146" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD146" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>142</v>
+        <v>733</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>40</v>
@@ -18403,7 +18421,7 @@
         <v>42</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>42</v>
@@ -18417,11 +18435,9 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>731</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
         <v>42</v>
       </c>
@@ -18442,13 +18458,13 @@
         <v>42</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>732</v>
+        <v>52</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>733</v>
+        <v>134</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>733</v>
+        <v>135</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -18499,19 +18515,19 @@
         <v>42</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>42</v>
@@ -18520,16 +18536,16 @@
         <v>42</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18542,26 +18558,22 @@
         <v>42</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J148" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>284</v>
+        <v>97</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>42</v>
       </c>
@@ -18597,19 +18609,17 @@
         <v>42</v>
       </c>
       <c r="AA148" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB148" s="2"/>
       <c r="AC148" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD148" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>40</v>
@@ -18630,20 +18640,22 @@
         <v>42</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="B149" s="2"/>
+        <v>736</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>737</v>
+      </c>
       <c r="C149" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F149" t="s" s="2">
         <v>50</v>
@@ -18658,18 +18670,16 @@
         <v>42</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>355</v>
+        <v>738</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>581</v>
+        <v>739</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>582</v>
+        <v>739</v>
       </c>
       <c r="M149" s="2"/>
-      <c r="N149" t="s" s="2">
-        <v>583</v>
-      </c>
+      <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>42</v>
       </c>
@@ -18717,19 +18727,19 @@
         <v>42</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>735</v>
+        <v>142</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>42</v>
@@ -18738,45 +18748,47 @@
         <v>42</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>601</v>
+        <v>284</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M150" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N150" t="s" s="2">
-        <v>603</v>
+        <v>123</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>42</v>
@@ -18801,13 +18813,13 @@
         <v>42</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>604</v>
+        <v>42</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>605</v>
+        <v>42</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>42</v>
@@ -18825,19 +18837,19 @@
         <v>42</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>736</v>
+        <v>286</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>42</v>
@@ -18846,12 +18858,12 @@
         <v>42</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18859,7 +18871,7 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F151" t="s" s="2">
         <v>50</v>
@@ -18874,19 +18886,17 @@
         <v>42</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="M151" s="2"/>
       <c r="N151" t="s" s="2">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>42</v>
@@ -18911,13 +18921,13 @@
         <v>42</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>612</v>
+        <v>42</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>42</v>
@@ -18935,10 +18945,10 @@
         <v>42</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>50</v>
@@ -18961,15 +18971,15 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>614</v>
+        <v>42</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s" s="2">
         <v>50</v>
@@ -18987,16 +18997,14 @@
         <v>154</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M152" s="2"/>
       <c r="N152" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>42</v>
@@ -19023,9 +19031,11 @@
       <c r="W152" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="X152" s="2"/>
+      <c r="X152" t="s" s="2">
+        <v>610</v>
+      </c>
       <c r="Y152" t="s" s="2">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>42</v>
@@ -19043,10 +19053,10 @@
         <v>42</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>50</v>
@@ -19069,7 +19079,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19080,7 +19090,7 @@
         <v>40</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>42</v>
@@ -19095,16 +19105,16 @@
         <v>154</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>740</v>
+        <v>613</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>741</v>
+        <v>615</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>42</v>
@@ -19132,10 +19142,10 @@
         <v>211</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>42</v>
@@ -19153,13 +19163,13 @@
         <v>42</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>42</v>
@@ -19179,18 +19189,18 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>42</v>
+        <v>620</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>42</v>
@@ -19205,16 +19215,16 @@
         <v>154</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>42</v>
@@ -19241,11 +19251,9 @@
       <c r="W154" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="X154" t="s" s="2">
-        <v>632</v>
-      </c>
+      <c r="X154" s="2"/>
       <c r="Y154" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>42</v>
@@ -19263,13 +19271,13 @@
         <v>42</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>42</v>
@@ -19289,7 +19297,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19300,7 +19308,7 @@
         <v>40</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>42</v>
@@ -19312,17 +19320,19 @@
         <v>42</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>646</v>
+        <v>154</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>647</v>
+        <v>746</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="M155" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>747</v>
+      </c>
       <c r="N155" t="s" s="2">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>42</v>
@@ -19347,13 +19357,13 @@
         <v>42</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>42</v>
+        <v>631</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>42</v>
+        <v>632</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>42</v>
@@ -19371,13 +19381,13 @@
         <v>42</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>42</v>
@@ -19397,7 +19407,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19408,7 +19418,7 @@
         <v>40</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>42</v>
@@ -19420,17 +19430,19 @@
         <v>42</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>693</v>
+        <v>154</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>694</v>
+        <v>634</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="M156" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="N156" t="s" s="2">
-        <v>696</v>
+        <v>637</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>42</v>
@@ -19455,13 +19467,13 @@
         <v>42</v>
       </c>
       <c r="W156" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>42</v>
+        <v>638</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>42</v>
@@ -19479,13 +19491,13 @@
         <v>42</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>42</v>
@@ -19505,7 +19517,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19528,19 +19540,17 @@
         <v>42</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>698</v>
+        <v>653</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>700</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>701</v>
+        <v>655</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>42</v>
@@ -19589,7 +19599,7 @@
         <v>42</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>40</v>
@@ -19615,7 +19625,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19638,19 +19648,17 @@
         <v>42</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="M158" s="2"/>
       <c r="N158" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>42</v>
@@ -19699,7 +19707,7 @@
         <v>42</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>40</v>
@@ -19725,7 +19733,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19736,7 +19744,7 @@
         <v>40</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>42</v>
@@ -19748,17 +19756,19 @@
         <v>42</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>493</v>
+        <v>662</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>494</v>
+        <v>704</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M159" s="2"/>
+        <v>705</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>706</v>
+      </c>
       <c r="N159" t="s" s="2">
-        <v>496</v>
+        <v>707</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>42</v>
@@ -19807,13 +19817,13 @@
         <v>42</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>42</v>
@@ -19833,7 +19843,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19844,7 +19854,7 @@
         <v>40</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>42</v>
@@ -19856,17 +19866,19 @@
         <v>42</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>275</v>
+        <v>699</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>565</v>
+        <v>709</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="M160" s="2"/>
+        <v>710</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>711</v>
+      </c>
       <c r="N160" t="s" s="2">
-        <v>567</v>
+        <v>712</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>42</v>
@@ -19915,13 +19927,13 @@
         <v>42</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>42</v>
@@ -19941,7 +19953,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19952,7 +19964,7 @@
         <v>40</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>42</v>
@@ -19964,16 +19976,18 @@
         <v>42</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>52</v>
+        <v>499</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>134</v>
+        <v>500</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>135</v>
+        <v>501</v>
       </c>
       <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
+      <c r="N161" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="O161" t="s" s="2">
         <v>42</v>
       </c>
@@ -20021,19 +20035,19 @@
         <v>42</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>136</v>
+        <v>753</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>42</v>
@@ -20042,16 +20056,16 @@
         <v>42</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20070,18 +20084,18 @@
         <v>42</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>139</v>
+        <v>571</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N162" s="2"/>
+        <v>734</v>
+      </c>
+      <c r="M162" s="2"/>
+      <c r="N162" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O162" t="s" s="2">
         <v>42</v>
       </c>
@@ -20129,7 +20143,7 @@
         <v>42</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>142</v>
+        <v>754</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>40</v>
@@ -20141,7 +20155,7 @@
         <v>42</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>42</v>
@@ -20150,48 +20164,44 @@
         <v>42</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
         <v>42</v>
       </c>
@@ -20239,19 +20249,19 @@
         <v>42</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>42</v>
@@ -20260,23 +20270,23 @@
         <v>42</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>42</v>
@@ -20288,18 +20298,18 @@
         <v>42</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>581</v>
+        <v>139</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M164" s="2"/>
-      <c r="N164" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
         <v>42</v>
       </c>
@@ -20347,19 +20357,19 @@
         <v>42</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>752</v>
+        <v>142</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>42</v>
@@ -20368,45 +20378,47 @@
         <v>42</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>601</v>
+        <v>284</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M165" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N165" t="s" s="2">
-        <v>603</v>
+        <v>123</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>42</v>
@@ -20431,13 +20443,13 @@
         <v>42</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>604</v>
+        <v>42</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>605</v>
+        <v>42</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>42</v>
@@ -20455,19 +20467,19 @@
         <v>42</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>753</v>
+        <v>286</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>42</v>
@@ -20476,12 +20488,12 @@
         <v>42</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20489,7 +20501,7 @@
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F166" t="s" s="2">
         <v>50</v>
@@ -20504,19 +20516,17 @@
         <v>42</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>42</v>
@@ -20541,13 +20551,13 @@
         <v>42</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>611</v>
+        <v>42</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>612</v>
+        <v>42</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>42</v>
@@ -20565,10 +20575,10 @@
         <v>42</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>50</v>
@@ -20591,7 +20601,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20599,7 +20609,7 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F167" t="s" s="2">
         <v>50</v>
@@ -20617,16 +20627,14 @@
         <v>154</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>42</v>
@@ -20654,10 +20662,10 @@
         <v>211</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>756</v>
+        <v>610</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>757</v>
+        <v>611</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>42</v>
@@ -20675,10 +20683,10 @@
         <v>42</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>50</v>
@@ -20701,7 +20709,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20712,7 +20720,7 @@
         <v>40</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>42</v>
@@ -20727,16 +20735,16 @@
         <v>154</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>740</v>
+        <v>613</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>741</v>
+        <v>615</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>42</v>
@@ -20764,10 +20772,10 @@
         <v>211</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>42</v>
@@ -20785,13 +20793,13 @@
         <v>42</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>42</v>
@@ -20811,7 +20819,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20819,10 +20827,10 @@
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>42</v>
@@ -20837,16 +20845,16 @@
         <v>154</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>42</v>
@@ -20874,10 +20882,10 @@
         <v>211</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>632</v>
+        <v>762</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>633</v>
+        <v>763</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>42</v>
@@ -20895,13 +20903,13 @@
         <v>42</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>42</v>
@@ -20921,7 +20929,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20932,7 +20940,7 @@
         <v>40</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>42</v>
@@ -20944,17 +20952,19 @@
         <v>42</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>646</v>
+        <v>154</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>647</v>
+        <v>746</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="M170" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>747</v>
+      </c>
       <c r="N170" t="s" s="2">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>42</v>
@@ -20979,13 +20989,13 @@
         <v>42</v>
       </c>
       <c r="W170" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>42</v>
+        <v>631</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>42</v>
+        <v>632</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>42</v>
@@ -21003,13 +21013,13 @@
         <v>42</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>42</v>
@@ -21029,7 +21039,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21040,7 +21050,7 @@
         <v>40</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>42</v>
@@ -21052,17 +21062,19 @@
         <v>42</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>693</v>
+        <v>154</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>694</v>
+        <v>634</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="M171" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="N171" t="s" s="2">
-        <v>696</v>
+        <v>637</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>42</v>
@@ -21087,13 +21099,13 @@
         <v>42</v>
       </c>
       <c r="W171" t="s" s="2">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>42</v>
+        <v>638</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>42</v>
@@ -21111,13 +21123,13 @@
         <v>42</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>42</v>
@@ -21137,7 +21149,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21160,19 +21172,17 @@
         <v>42</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>698</v>
+        <v>653</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>700</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>701</v>
+        <v>655</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>42</v>
@@ -21221,7 +21231,7 @@
         <v>42</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>40</v>
@@ -21247,7 +21257,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21270,19 +21280,17 @@
         <v>42</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>42</v>
@@ -21331,7 +21339,7 @@
         <v>42</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>40</v>
@@ -21357,7 +21365,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21368,7 +21376,7 @@
         <v>40</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>42</v>
@@ -21380,17 +21388,19 @@
         <v>42</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>493</v>
+        <v>662</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>494</v>
+        <v>704</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M174" s="2"/>
+        <v>705</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>706</v>
+      </c>
       <c r="N174" t="s" s="2">
-        <v>496</v>
+        <v>707</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>42</v>
@@ -21439,13 +21449,13 @@
         <v>42</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>42</v>
@@ -21465,7 +21475,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21488,17 +21498,19 @@
         <v>42</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>766</v>
+        <v>709</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="M175" s="2"/>
+        <v>710</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>711</v>
+      </c>
       <c r="N175" t="s" s="2">
-        <v>768</v>
+        <v>712</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>42</v>
@@ -21547,7 +21559,7 @@
         <v>42</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>40</v>
@@ -21571,8 +21583,224 @@
         <v>42</v>
       </c>
     </row>
+    <row r="176" hidden="true">
+      <c r="A176" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F176" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M176" s="2"/>
+      <c r="N176" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P176" s="2"/>
+      <c r="Q176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL176" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" hidden="true">
+      <c r="A177" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F177" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M177" s="2"/>
+      <c r="N177" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="O177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P177" s="2"/>
+      <c r="Q177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="AF177" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI177" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL177" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL175">
+  <autoFilter ref="A1:AL177">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21582,7 +21810,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI174">
+  <conditionalFormatting sqref="A2:AI176">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6798" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6832" uniqueCount="874">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1865,6 +1865,16 @@
   </si>
   <si>
     <t>Indicates whether the claim is a crossover claim where a portion is paid by Medicare</t>
+  </si>
+  <si>
+    <t>lineOfBusiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/line-of-business}
+</t>
+  </si>
+  <si>
+    <t>Code for the line of business</t>
   </si>
   <si>
     <t>priorAuthorizationIndicator</t>
@@ -3015,7 +3025,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL198"/>
+  <dimension ref="A1:AL199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -15286,43 +15296,41 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B114" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>129</v>
+        <v>599</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>365</v>
+        <v>600</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>75</v>
       </c>
@@ -15370,7 +15378,7 @@
         <v>75</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>73</v>
@@ -15379,7 +15387,7 @@
         <v>74</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>135</v>
@@ -15396,40 +15404,42 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>600</v>
+        <v>365</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M115" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N115" t="s" s="2">
-        <v>602</v>
+        <v>213</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>75</v>
@@ -15478,19 +15488,19 @@
         <v>75</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>599</v>
+        <v>367</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>75</v>
@@ -15499,12 +15509,12 @@
         <v>75</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15527,19 +15537,17 @@
         <v>84</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" s="2"/>
+      <c r="N116" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>75</v>
@@ -15588,7 +15596,7 @@
         <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>83</v>
@@ -15614,7 +15622,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15622,7 +15630,7 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>83</v>
@@ -15634,22 +15642,22 @@
         <v>75</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>217</v>
+        <v>447</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>75</v>
@@ -15698,10 +15706,10 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>83</v>
@@ -15713,10 +15721,10 @@
         <v>96</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>75</v>
@@ -15724,7 +15732,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15732,7 +15740,7 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>83</v>
@@ -15744,20 +15752,22 @@
         <v>75</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J118" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="K118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>75</v>
@@ -15806,10 +15816,10 @@
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>83</v>
@@ -15821,10 +15831,10 @@
         <v>96</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>75</v>
@@ -15832,7 +15842,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15840,7 +15850,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>83</v>
@@ -15852,20 +15862,20 @@
         <v>75</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>85</v>
+        <v>617</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>75</v>
@@ -15914,10 +15924,10 @@
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>83</v>
@@ -15940,7 +15950,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15951,7 +15961,7 @@
         <v>73</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>75</v>
@@ -15966,16 +15976,14 @@
         <v>85</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" s="2"/>
+      <c r="N120" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>75</v>
@@ -16024,13 +16032,13 @@
         <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>75</v>
@@ -16050,7 +16058,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16061,7 +16069,7 @@
         <v>73</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>75</v>
@@ -16073,19 +16081,19 @@
         <v>75</v>
       </c>
       <c r="J121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="K121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>75</v>
@@ -16134,13 +16142,13 @@
         <v>75</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>75</v>
@@ -16160,7 +16168,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16183,17 +16191,19 @@
         <v>75</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>356</v>
+        <v>631</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>75</v>
@@ -16242,7 +16252,7 @@
         <v>75</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>73</v>
@@ -16268,7 +16278,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16291,16 +16301,18 @@
         <v>75</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>164</v>
+        <v>637</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>165</v>
+        <v>638</v>
       </c>
       <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+      <c r="N123" t="s" s="2">
+        <v>639</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>75</v>
       </c>
@@ -16348,7 +16360,7 @@
         <v>75</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>166</v>
+        <v>636</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>73</v>
@@ -16360,7 +16372,7 @@
         <v>75</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>75</v>
@@ -16369,23 +16381,23 @@
         <v>75</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>75</v>
@@ -16397,17 +16409,15 @@
         <v>75</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>75</v>
@@ -16456,19 +16466,19 @@
         <v>75</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>75</v>
@@ -16482,11 +16492,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16499,26 +16509,24 @@
         <v>75</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J125" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>366</v>
+        <v>226</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N125" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>75</v>
       </c>
@@ -16566,7 +16574,7 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>73</v>
@@ -16587,47 +16595,47 @@
         <v>75</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>641</v>
+        <v>129</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>642</v>
+        <v>365</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>643</v>
+        <v>366</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>644</v>
+        <v>212</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>645</v>
+        <v>213</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>75</v>
@@ -16676,19 +16684,19 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>640</v>
+        <v>367</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>75</v>
@@ -16697,12 +16705,12 @@
         <v>75</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16710,7 +16718,7 @@
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F127" t="s" s="2">
         <v>83</v>
@@ -16725,17 +16733,19 @@
         <v>75</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>178</v>
+        <v>644</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>75</v>
@@ -16760,13 +16770,13 @@
         <v>75</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>650</v>
+        <v>75</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>651</v>
+        <v>75</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>75</v>
@@ -16784,10 +16794,10 @@
         <v>75</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>83</v>
@@ -16810,7 +16820,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16833,17 +16843,17 @@
         <v>75</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>653</v>
+        <v>178</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>75</v>
@@ -16868,13 +16878,13 @@
         <v>75</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>75</v>
+        <v>653</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>75</v>
+        <v>654</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>75</v>
@@ -16892,7 +16902,7 @@
         <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>73</v>
@@ -16918,7 +16928,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16929,7 +16939,7 @@
         <v>73</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>75</v>
@@ -16941,17 +16951,17 @@
         <v>75</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>356</v>
+        <v>656</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>75</v>
@@ -17000,13 +17010,13 @@
         <v>75</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>75</v>
@@ -17026,7 +17036,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17037,7 +17047,7 @@
         <v>73</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>75</v>
@@ -17049,16 +17059,18 @@
         <v>75</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>164</v>
+        <v>661</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>165</v>
+        <v>662</v>
       </c>
       <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
+      <c r="N130" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>75</v>
       </c>
@@ -17106,19 +17118,19 @@
         <v>75</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>166</v>
+        <v>660</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>75</v>
@@ -17127,12 +17139,12 @@
         <v>75</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17143,7 +17155,7 @@
         <v>73</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>75</v>
@@ -17155,13 +17167,13 @@
         <v>75</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -17200,29 +17212,31 @@
         <v>75</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AB131" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>75</v>
@@ -17231,16 +17245,14 @@
         <v>75</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>663</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
         <v>75</v>
       </c>
@@ -17249,7 +17261,7 @@
         <v>73</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>75</v>
@@ -17261,13 +17273,13 @@
         <v>75</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>664</v>
+        <v>129</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>665</v>
+        <v>130</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>665</v>
+        <v>131</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -17306,16 +17318,14 @@
         <v>75</v>
       </c>
       <c r="AA132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AB132" s="2"/>
       <c r="AC132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD132" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE132" t="s" s="2">
         <v>170</v>
@@ -17327,7 +17337,7 @@
         <v>74</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>135</v>
@@ -17339,12 +17349,12 @@
         <v>75</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>666</v>
@@ -17452,7 +17462,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>669</v>
@@ -17560,7 +17570,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>672</v>
@@ -17668,7 +17678,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>675</v>
@@ -17759,7 +17769,7 @@
         <v>74</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>135</v>
@@ -17776,7 +17786,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>678</v>
@@ -17884,43 +17894,41 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B138" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>129</v>
+        <v>682</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>365</v>
+        <v>683</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>75</v>
       </c>
@@ -17968,7 +17976,7 @@
         <v>75</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>73</v>
@@ -17994,40 +18002,42 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>683</v>
+        <v>365</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M139" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N139" t="s" s="2">
-        <v>685</v>
+        <v>213</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>75</v>
@@ -18076,19 +18086,19 @@
         <v>75</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>682</v>
+        <v>367</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>75</v>
@@ -18097,12 +18107,12 @@
         <v>75</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18110,10 +18120,10 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>75</v>
@@ -18128,14 +18138,14 @@
         <v>436</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>75</v>
@@ -18184,13 +18194,13 @@
         <v>75</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>75</v>
@@ -18210,7 +18220,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18236,14 +18246,14 @@
         <v>436</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>75</v>
@@ -18292,7 +18302,7 @@
         <v>75</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>73</v>
@@ -18318,7 +18328,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18344,14 +18354,14 @@
         <v>436</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L142" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>75</v>
@@ -18400,7 +18410,7 @@
         <v>75</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>73</v>
@@ -18426,7 +18436,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18452,14 +18462,14 @@
         <v>436</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>75</v>
@@ -18508,7 +18518,7 @@
         <v>75</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>73</v>
@@ -18534,7 +18544,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18545,7 +18555,7 @@
         <v>73</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>75</v>
@@ -18557,17 +18567,17 @@
         <v>75</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>178</v>
+        <v>436</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>75</v>
@@ -18592,13 +18602,13 @@
         <v>75</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>706</v>
+        <v>75</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>707</v>
+        <v>75</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>75</v>
@@ -18616,13 +18626,13 @@
         <v>75</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>75</v>
@@ -18642,7 +18652,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18668,16 +18678,14 @@
         <v>178</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>711</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="M145" s="2"/>
       <c r="N145" t="s" s="2">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>75</v>
@@ -18705,10 +18713,10 @@
         <v>343</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>75</v>
@@ -18726,7 +18734,7 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>73</v>
@@ -18752,15 +18760,15 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>716</v>
+        <v>75</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F146" t="s" s="2">
         <v>83</v>
@@ -18778,16 +18786,16 @@
         <v>178</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>75</v>
@@ -18814,9 +18822,11 @@
       <c r="W146" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="X146" s="2"/>
+      <c r="X146" t="s" s="2">
+        <v>716</v>
+      </c>
       <c r="Y146" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>75</v>
@@ -18834,10 +18844,10 @@
         <v>75</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>83</v>
@@ -18860,18 +18870,18 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>75</v>
+        <v>719</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>75</v>
@@ -18886,16 +18896,16 @@
         <v>178</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>75</v>
@@ -18922,11 +18932,9 @@
       <c r="W147" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="X147" t="s" s="2">
-        <v>727</v>
-      </c>
+      <c r="X147" s="2"/>
       <c r="Y147" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>75</v>
@@ -18944,13 +18952,13 @@
         <v>75</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>75</v>
@@ -18970,7 +18978,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18996,16 +19004,16 @@
         <v>178</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>75</v>
@@ -19033,10 +19041,10 @@
         <v>343</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>75</v>
@@ -19054,7 +19062,7 @@
         <v>75</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>73</v>
@@ -19080,7 +19088,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19091,7 +19099,7 @@
         <v>73</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>75</v>
@@ -19103,17 +19111,19 @@
         <v>75</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>490</v>
+        <v>178</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="M149" s="2"/>
+        <v>734</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>735</v>
+      </c>
       <c r="N149" t="s" s="2">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>75</v>
@@ -19138,13 +19148,13 @@
         <v>75</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>75</v>
+        <v>737</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>75</v>
+        <v>738</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>75</v>
@@ -19162,13 +19172,13 @@
         <v>75</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>75</v>
@@ -19180,7 +19190,7 @@
         <v>75</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>75</v>
@@ -19188,7 +19198,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19211,17 +19221,17 @@
         <v>75</v>
       </c>
       <c r="J150" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>75</v>
@@ -19246,13 +19256,13 @@
         <v>75</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>745</v>
+        <v>75</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>746</v>
+        <v>75</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>75</v>
@@ -19270,7 +19280,7 @@
         <v>75</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>73</v>
@@ -19288,7 +19298,7 @@
         <v>75</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>427</v>
+        <v>312</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>75</v>
@@ -19296,7 +19306,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19319,17 +19329,17 @@
         <v>75</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" t="s" s="2">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>75</v>
@@ -19354,13 +19364,13 @@
         <v>75</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>75</v>
+        <v>748</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>75</v>
+        <v>749</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>75</v>
@@ -19378,7 +19388,7 @@
         <v>75</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>73</v>
@@ -19396,7 +19406,7 @@
         <v>75</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>75</v>
@@ -19404,7 +19414,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19427,16 +19437,18 @@
         <v>75</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>85</v>
+        <v>751</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>164</v>
+        <v>752</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>165</v>
+        <v>753</v>
       </c>
       <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
+      <c r="N152" t="s" s="2">
+        <v>754</v>
+      </c>
       <c r="O152" t="s" s="2">
         <v>75</v>
       </c>
@@ -19484,7 +19496,7 @@
         <v>75</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>166</v>
+        <v>750</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>73</v>
@@ -19496,7 +19508,7 @@
         <v>75</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>75</v>
@@ -19505,23 +19517,23 @@
         <v>75</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>75</v>
@@ -19533,17 +19545,15 @@
         <v>75</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>75</v>
@@ -19580,31 +19590,31 @@
         <v>75</v>
       </c>
       <c r="AA153" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AB153" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AC153" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD153" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>75</v>
@@ -19618,20 +19628,18 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="B154" t="s" s="2">
-        <v>754</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>75</v>
@@ -19643,15 +19651,17 @@
         <v>75</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>755</v>
+        <v>129</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>756</v>
+        <v>225</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="M154" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
         <v>75</v>
@@ -19688,16 +19698,16 @@
         <v>75</v>
       </c>
       <c r="AA154" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AB154" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AC154" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD154" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE154" t="s" s="2">
         <v>170</v>
@@ -19721,14 +19731,16 @@
         <v>75</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="B155" t="s" s="2">
         <v>757</v>
       </c>
-      <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
         <v>75</v>
       </c>
@@ -19746,7 +19758,7 @@
         <v>75</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J155" t="s" s="2">
         <v>758</v>
@@ -19755,14 +19767,10 @@
         <v>759</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>762</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>75</v>
       </c>
@@ -19810,19 +19818,19 @@
         <v>75</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>763</v>
+        <v>170</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>75</v>
@@ -19831,12 +19839,12 @@
         <v>75</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>764</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19847,80 +19855,80 @@
         <v>73</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I156" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>105</v>
+        <v>761</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P156" s="2"/>
+      <c r="Q156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE156" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="M156" s="2"/>
-      <c r="N156" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P156" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="Q156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>73</v>
@@ -19941,12 +19949,12 @@
         <v>75</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19957,34 +19965,36 @@
         <v>73</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="P157" s="2"/>
+      <c r="P157" t="s" s="2">
+        <v>772</v>
+      </c>
       <c r="Q157" t="s" s="2">
         <v>75</v>
       </c>
@@ -20004,13 +20014,13 @@
         <v>75</v>
       </c>
       <c r="W157" t="s" s="2">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>75</v>
+        <v>773</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>75</v>
+        <v>774</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>75</v>
@@ -20028,7 +20038,7 @@
         <v>75</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>73</v>
@@ -20049,12 +20059,12 @@
         <v>75</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20077,17 +20087,17 @@
         <v>84</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>75</v>
@@ -20136,7 +20146,7 @@
         <v>75</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>73</v>
@@ -20145,7 +20155,7 @@
         <v>83</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>785</v>
+        <v>75</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>96</v>
@@ -20157,12 +20167,12 @@
         <v>75</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20185,19 +20195,17 @@
         <v>84</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>790</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>75</v>
@@ -20246,7 +20254,7 @@
         <v>75</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>73</v>
@@ -20255,7 +20263,7 @@
         <v>83</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>75</v>
+        <v>788</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>96</v>
@@ -20267,12 +20275,12 @@
         <v>75</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20292,20 +20300,22 @@
         <v>75</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>795</v>
+        <v>105</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="M160" s="2"/>
+        <v>792</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>793</v>
+      </c>
       <c r="N160" t="s" s="2">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>75</v>
@@ -20354,7 +20364,7 @@
         <v>75</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>73</v>
@@ -20375,12 +20385,12 @@
         <v>75</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>75</v>
+        <v>796</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20403,19 +20413,17 @@
         <v>75</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>758</v>
+        <v>798</v>
       </c>
       <c r="K161" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="L161" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="M161" s="2"/>
+      <c r="N161" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>75</v>
@@ -20464,7 +20472,7 @@
         <v>75</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>73</v>
@@ -20490,7 +20498,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20513,19 +20521,19 @@
         <v>75</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>795</v>
+        <v>761</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>75</v>
@@ -20574,7 +20582,7 @@
         <v>75</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>73</v>
@@ -20600,7 +20608,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20611,7 +20619,7 @@
         <v>73</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>75</v>
@@ -20623,17 +20631,19 @@
         <v>75</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>580</v>
+        <v>798</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>581</v>
+        <v>808</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M163" s="2"/>
+        <v>809</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>810</v>
+      </c>
       <c r="N163" t="s" s="2">
-        <v>583</v>
+        <v>811</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>75</v>
@@ -20682,13 +20692,13 @@
         <v>75</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>75</v>
@@ -20708,7 +20718,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20719,7 +20729,7 @@
         <v>73</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>75</v>
@@ -20731,19 +20741,17 @@
         <v>75</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>178</v>
+        <v>580</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>811</v>
+        <v>581</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>813</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>814</v>
+        <v>583</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>75</v>
@@ -20768,13 +20776,13 @@
         <v>75</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>815</v>
+        <v>75</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>816</v>
+        <v>75</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>75</v>
@@ -20792,13 +20800,13 @@
         <v>75</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>75</v>
@@ -20818,7 +20826,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20829,7 +20837,7 @@
         <v>73</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>75</v>
@@ -20844,14 +20852,16 @@
         <v>178</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="M165" s="2"/>
+        <v>815</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>816</v>
+      </c>
       <c r="N165" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>75</v>
@@ -20879,10 +20889,10 @@
         <v>343</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>75</v>
@@ -20900,13 +20910,13 @@
         <v>75</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>75</v>
@@ -20926,7 +20936,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20949,19 +20959,17 @@
         <v>75</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>823</v>
+        <v>178</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>826</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>75</v>
@@ -20986,13 +20994,13 @@
         <v>75</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>75</v>
+        <v>823</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>75</v>
+        <v>824</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>75</v>
@@ -21010,7 +21018,7 @@
         <v>75</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>73</v>
@@ -21025,7 +21033,7 @@
         <v>96</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>828</v>
+        <v>75</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>75</v>
@@ -21036,7 +21044,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21059,17 +21067,19 @@
         <v>75</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>356</v>
+        <v>826</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>658</v>
+        <v>827</v>
       </c>
       <c r="L167" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="N167" t="s" s="2">
         <v>830</v>
-      </c>
-      <c r="M167" s="2"/>
-      <c r="N167" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>75</v>
@@ -21118,7 +21128,7 @@
         <v>75</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>73</v>
@@ -21133,7 +21143,7 @@
         <v>96</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>75</v>
+        <v>831</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>75</v>
@@ -21144,7 +21154,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21155,7 +21165,7 @@
         <v>73</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>75</v>
@@ -21167,16 +21177,18 @@
         <v>75</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>164</v>
+        <v>661</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>165</v>
+        <v>833</v>
       </c>
       <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
+      <c r="N168" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="O168" t="s" s="2">
         <v>75</v>
       </c>
@@ -21224,19 +21236,19 @@
         <v>75</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>166</v>
+        <v>832</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>75</v>
@@ -21245,12 +21257,12 @@
         <v>75</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21261,7 +21273,7 @@
         <v>73</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>75</v>
@@ -21273,13 +21285,13 @@
         <v>75</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -21318,29 +21330,31 @@
         <v>75</v>
       </c>
       <c r="AA169" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AB169" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC169" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD169" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>75</v>
@@ -21349,16 +21363,14 @@
         <v>75</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>832</v>
-      </c>
-      <c r="B170" t="s" s="2">
-        <v>833</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
         <v>75</v>
       </c>
@@ -21367,7 +21379,7 @@
         <v>73</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>75</v>
@@ -21379,13 +21391,13 @@
         <v>75</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>834</v>
+        <v>129</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>835</v>
+        <v>130</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>835</v>
+        <v>131</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -21424,16 +21436,14 @@
         <v>75</v>
       </c>
       <c r="AA170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AB170" s="2"/>
       <c r="AC170" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD170" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE170" t="s" s="2">
         <v>170</v>
@@ -21445,7 +21455,7 @@
         <v>74</v>
       </c>
       <c r="AH170" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AI170" t="s" s="2">
         <v>135</v>
@@ -21457,48 +21467,46 @@
         <v>75</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B171" t="s" s="2">
         <v>836</v>
       </c>
-      <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H171" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I171" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>129</v>
+        <v>837</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>365</v>
+        <v>838</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
         <v>75</v>
       </c>
@@ -21546,7 +21554,7 @@
         <v>75</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>73</v>
@@ -21555,7 +21563,7 @@
         <v>74</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>135</v>
@@ -21572,40 +21580,42 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>683</v>
+        <v>365</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M172" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N172" t="s" s="2">
-        <v>685</v>
+        <v>213</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>75</v>
@@ -21654,19 +21664,19 @@
         <v>75</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>837</v>
+        <v>367</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>75</v>
@@ -21675,12 +21685,12 @@
         <v>75</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21688,7 +21698,7 @@
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F173" t="s" s="2">
         <v>83</v>
@@ -21703,17 +21713,17 @@
         <v>75</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>178</v>
+        <v>436</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>75</v>
@@ -21738,13 +21748,13 @@
         <v>75</v>
       </c>
       <c r="W173" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>706</v>
+        <v>75</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>707</v>
+        <v>75</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>75</v>
@@ -21762,10 +21772,10 @@
         <v>75</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>83</v>
@@ -21788,7 +21798,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21814,16 +21824,14 @@
         <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>711</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>75</v>
@@ -21851,10 +21859,10 @@
         <v>343</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>75</v>
@@ -21872,7 +21880,7 @@
         <v>75</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>73</v>
@@ -21898,15 +21906,15 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
-        <v>716</v>
+        <v>75</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F175" t="s" s="2">
         <v>83</v>
@@ -21924,16 +21932,16 @@
         <v>178</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>75</v>
@@ -21960,9 +21968,11 @@
       <c r="W175" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="X175" s="2"/>
+      <c r="X175" t="s" s="2">
+        <v>716</v>
+      </c>
       <c r="Y175" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>75</v>
@@ -21980,10 +21990,10 @@
         <v>75</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>83</v>
@@ -22006,18 +22016,18 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>75</v>
+        <v>719</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F176" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>75</v>
@@ -22032,16 +22042,16 @@
         <v>178</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>842</v>
+        <v>720</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>843</v>
+        <v>722</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>75</v>
@@ -22068,11 +22078,9 @@
       <c r="W176" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="X176" t="s" s="2">
-        <v>727</v>
-      </c>
+      <c r="X176" s="2"/>
       <c r="Y176" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="Z176" t="s" s="2">
         <v>75</v>
@@ -22090,13 +22098,13 @@
         <v>75</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>75</v>
@@ -22142,16 +22150,16 @@
         <v>178</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>730</v>
+        <v>845</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>732</v>
+        <v>846</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>75</v>
@@ -22179,10 +22187,10 @@
         <v>343</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>75</v>
@@ -22226,7 +22234,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22237,7 +22245,7 @@
         <v>73</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>75</v>
@@ -22249,17 +22257,19 @@
         <v>75</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>748</v>
+        <v>178</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="M178" s="2"/>
+        <v>734</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>735</v>
+      </c>
       <c r="N178" t="s" s="2">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>75</v>
@@ -22284,13 +22294,13 @@
         <v>75</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>75</v>
+        <v>737</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>75</v>
+        <v>738</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>75</v>
@@ -22308,13 +22318,13 @@
         <v>75</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>75</v>
@@ -22334,7 +22344,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22357,17 +22367,17 @@
         <v>75</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>795</v>
+        <v>751</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>796</v>
+        <v>752</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>798</v>
+        <v>754</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>75</v>
@@ -22416,7 +22426,7 @@
         <v>75</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>73</v>
@@ -22442,7 +22452,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22465,19 +22475,17 @@
         <v>75</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>758</v>
+        <v>798</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="M180" s="2"/>
+      <c r="N180" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>75</v>
@@ -22526,7 +22534,7 @@
         <v>75</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>73</v>
@@ -22552,7 +22560,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22575,19 +22583,19 @@
         <v>75</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>795</v>
+        <v>761</v>
       </c>
       <c r="K181" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="M181" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="L181" t="s" s="2">
+      <c r="N181" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>75</v>
@@ -22636,7 +22644,7 @@
         <v>75</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>73</v>
@@ -22662,7 +22670,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -22673,7 +22681,7 @@
         <v>73</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>75</v>
@@ -22685,17 +22693,19 @@
         <v>75</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>580</v>
+        <v>798</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>581</v>
+        <v>808</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M182" s="2"/>
+        <v>809</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>810</v>
+      </c>
       <c r="N182" t="s" s="2">
-        <v>583</v>
+        <v>811</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>75</v>
@@ -22744,13 +22754,13 @@
         <v>75</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>75</v>
@@ -22770,7 +22780,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -22793,17 +22803,17 @@
         <v>75</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>356</v>
+        <v>580</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>658</v>
+        <v>581</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>830</v>
+        <v>582</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>660</v>
+        <v>583</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>75</v>
@@ -22852,7 +22862,7 @@
         <v>75</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>73</v>
@@ -22878,7 +22888,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22889,7 +22899,7 @@
         <v>73</v>
       </c>
       <c r="F184" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G184" t="s" s="2">
         <v>75</v>
@@ -22901,16 +22911,18 @@
         <v>75</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>164</v>
+        <v>661</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>165</v>
+        <v>833</v>
       </c>
       <c r="M184" s="2"/>
-      <c r="N184" s="2"/>
+      <c r="N184" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="O184" t="s" s="2">
         <v>75</v>
       </c>
@@ -22958,19 +22970,19 @@
         <v>75</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>166</v>
+        <v>853</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>75</v>
@@ -22979,23 +22991,23 @@
         <v>75</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F185" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G185" t="s" s="2">
         <v>75</v>
@@ -23007,17 +23019,15 @@
         <v>75</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
         <v>75</v>
@@ -23066,19 +23076,19 @@
         <v>75</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>75</v>
@@ -23092,11 +23102,11 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -23109,26 +23119,24 @@
         <v>75</v>
       </c>
       <c r="H186" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I186" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J186" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>366</v>
+        <v>226</v>
       </c>
       <c r="M186" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N186" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
         <v>75</v>
       </c>
@@ -23176,7 +23184,7 @@
         <v>75</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>73</v>
@@ -23197,45 +23205,47 @@
         <v>75</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F187" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H187" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I187" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>683</v>
+        <v>365</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M187" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N187" t="s" s="2">
-        <v>685</v>
+        <v>213</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>75</v>
@@ -23284,19 +23294,19 @@
         <v>75</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>854</v>
+        <v>367</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>75</v>
@@ -23305,12 +23315,12 @@
         <v>75</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23318,7 +23328,7 @@
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F188" t="s" s="2">
         <v>83</v>
@@ -23333,17 +23343,17 @@
         <v>75</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>178</v>
+        <v>436</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>75</v>
@@ -23368,13 +23378,13 @@
         <v>75</v>
       </c>
       <c r="W188" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>706</v>
+        <v>75</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>707</v>
+        <v>75</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>75</v>
@@ -23392,10 +23402,10 @@
         <v>75</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>83</v>
@@ -23418,7 +23428,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23444,16 +23454,14 @@
         <v>178</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>711</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>75</v>
@@ -23481,10 +23489,10 @@
         <v>343</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>75</v>
@@ -23502,7 +23510,7 @@
         <v>75</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>73</v>
@@ -23528,7 +23536,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23536,7 +23544,7 @@
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F190" t="s" s="2">
         <v>83</v>
@@ -23554,16 +23562,16 @@
         <v>178</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>75</v>
@@ -23591,31 +23599,31 @@
         <v>343</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>858</v>
+        <v>716</v>
       </c>
       <c r="Y190" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE190" t="s" s="2">
         <v>859</v>
       </c>
-      <c r="Z190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD190" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE190" t="s" s="2">
-        <v>857</v>
-      </c>
       <c r="AF190" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>83</v>
@@ -23646,10 +23654,10 @@
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F191" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G191" t="s" s="2">
         <v>75</v>
@@ -23664,16 +23672,16 @@
         <v>178</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>842</v>
+        <v>720</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>843</v>
+        <v>722</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>75</v>
@@ -23701,10 +23709,10 @@
         <v>343</v>
       </c>
       <c r="X191" t="s" s="2">
-        <v>727</v>
+        <v>861</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>728</v>
+        <v>862</v>
       </c>
       <c r="Z191" t="s" s="2">
         <v>75</v>
@@ -23725,10 +23733,10 @@
         <v>860</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>75</v>
@@ -23748,7 +23756,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23774,16 +23782,16 @@
         <v>178</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>730</v>
+        <v>845</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>732</v>
+        <v>846</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>75</v>
@@ -23811,10 +23819,10 @@
         <v>343</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>75</v>
@@ -23832,7 +23840,7 @@
         <v>75</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>73</v>
@@ -23858,7 +23866,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -23869,7 +23877,7 @@
         <v>73</v>
       </c>
       <c r="F193" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>75</v>
@@ -23881,17 +23889,19 @@
         <v>75</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>748</v>
+        <v>178</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="M193" s="2"/>
+        <v>734</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>735</v>
+      </c>
       <c r="N193" t="s" s="2">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>75</v>
@@ -23916,13 +23926,13 @@
         <v>75</v>
       </c>
       <c r="W193" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>75</v>
+        <v>737</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>75</v>
+        <v>738</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>75</v>
@@ -23940,13 +23950,13 @@
         <v>75</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>75</v>
@@ -23966,7 +23976,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23989,17 +23999,17 @@
         <v>75</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>795</v>
+        <v>751</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>796</v>
+        <v>752</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>798</v>
+        <v>754</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>75</v>
@@ -24048,7 +24058,7 @@
         <v>75</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>73</v>
@@ -24074,7 +24084,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24097,19 +24107,17 @@
         <v>75</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>758</v>
+        <v>798</v>
       </c>
       <c r="K195" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="L195" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="L195" t="s" s="2">
+      <c r="M195" s="2"/>
+      <c r="N195" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>75</v>
@@ -24158,7 +24166,7 @@
         <v>75</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>73</v>
@@ -24184,7 +24192,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24207,19 +24215,19 @@
         <v>75</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>795</v>
+        <v>761</v>
       </c>
       <c r="K196" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="M196" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="L196" t="s" s="2">
+      <c r="N196" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>75</v>
@@ -24268,7 +24276,7 @@
         <v>75</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>73</v>
@@ -24294,7 +24302,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -24305,7 +24313,7 @@
         <v>73</v>
       </c>
       <c r="F197" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G197" t="s" s="2">
         <v>75</v>
@@ -24317,17 +24325,19 @@
         <v>75</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>580</v>
+        <v>798</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>581</v>
+        <v>808</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M197" s="2"/>
+        <v>809</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>810</v>
+      </c>
       <c r="N197" t="s" s="2">
-        <v>583</v>
+        <v>811</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>75</v>
@@ -24376,13 +24386,13 @@
         <v>75</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>75</v>
@@ -24402,7 +24412,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -24413,7 +24423,7 @@
         <v>73</v>
       </c>
       <c r="F198" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>75</v>
@@ -24425,17 +24435,17 @@
         <v>75</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>795</v>
+        <v>580</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>868</v>
+        <v>581</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>869</v>
+        <v>582</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" t="s" s="2">
-        <v>870</v>
+        <v>583</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>75</v>
@@ -24484,13 +24494,13 @@
         <v>75</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>75</v>
@@ -24505,6 +24515,114 @@
         <v>75</v>
       </c>
       <c r="AL198" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F199" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="M199" s="2"/>
+      <c r="N199" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="O199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P199" s="2"/>
+      <c r="Q199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG199" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI199" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK199" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL199" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3030,37 +3030,37 @@
     <col min="1" max="1" width="43.17578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.04296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="48.375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="128.54296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.63671875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="124.6484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.62109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="42.625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-drug.xlsx
+++ b/StructureDefinition-cdm-claim-drug.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6831" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6831" uniqueCount="875">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,263 +275,267 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Claim.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Claim.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Claim.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Claim.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Claim.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Claim.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>aggregateClaimIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/aggregate-claim-indicator}
+</t>
+  </si>
+  <si>
+    <t>Indicates whether this claim record is included in the adjustment processing of the aggregate build logic for admissions, episodes or DCGs</t>
+  </si>
+  <si>
+    <t>claimSnapshotProviderName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-snapshot-provider-name}
+</t>
+  </si>
+  <si>
+    <t>Original provider name as reported on the claim</t>
+  </si>
+  <si>
+    <t>claimSnapshotProviderZipCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-snapshot-provider-zip-code}
+</t>
+  </si>
+  <si>
+    <t>Original provider postal code, as reported on the claim</t>
+  </si>
+  <si>
+    <t>companyCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/company-code}
+</t>
+  </si>
+  <si>
+    <t>Company code of the subscriber as reported on the claim</t>
+  </si>
+  <si>
+    <t>employeeBusinessUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-business-unit}
+</t>
+  </si>
+  <si>
+    <t>Business unit of the subscriber as reported on the claim</t>
+  </si>
+  <si>
+    <t>employer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employer}
+</t>
+  </si>
+  <si>
+    <t>Customer-specific code for the employer as reported on the claim record</t>
+  </si>
+  <si>
+    <t>financialSystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/financial-system}
+</t>
+  </si>
+  <si>
+    <t>Customer-specific code for the financial system</t>
+  </si>
+  <si>
+    <t>claimCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-category}
+</t>
+  </si>
+  <si>
+    <t>Standard HIPAA code for the category of the claim status</t>
+  </si>
+  <si>
+    <t>claimStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-status}
+</t>
+  </si>
+  <si>
+    <t>Standard HIPAA code for the status of an entire claim</t>
+  </si>
+  <si>
+    <t>Claim.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Claim.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Claim.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Claim.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Claim.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Claim.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Claim.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>aggregateClaimIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/aggregate-claim-indicator}
-</t>
-  </si>
-  <si>
-    <t>Indicates whether this claim record is included in the adjustment processing of the aggregate build logic for admissions, episodes or DCGs</t>
-  </si>
-  <si>
-    <t>claimSnapshotProviderName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-snapshot-provider-name}
-</t>
-  </si>
-  <si>
-    <t>Original provider name as reported on the claim</t>
-  </si>
-  <si>
-    <t>claimSnapshotProviderZipCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-snapshot-provider-zip-code}
-</t>
-  </si>
-  <si>
-    <t>Original provider postal code, as reported on the claim</t>
-  </si>
-  <si>
-    <t>companyCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/company-code}
-</t>
-  </si>
-  <si>
-    <t>Company code of the subscriber as reported on the claim</t>
-  </si>
-  <si>
-    <t>employeeBusinessUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-business-unit}
-</t>
-  </si>
-  <si>
-    <t>Business unit of the subscriber as reported on the claim</t>
-  </si>
-  <si>
-    <t>employer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employer}
-</t>
-  </si>
-  <si>
-    <t>Customer-specific code for the employer as reported on the claim record</t>
-  </si>
-  <si>
-    <t>financialSystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/financial-system}
-</t>
-  </si>
-  <si>
-    <t>Customer-specific code for the financial system</t>
-  </si>
-  <si>
-    <t>claimCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-category}
-</t>
-  </si>
-  <si>
-    <t>Standard HIPAA code for the category of the claim status</t>
-  </si>
-  <si>
-    <t>claimStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-status}
-</t>
-  </si>
-  <si>
-    <t>Standard HIPAA code for the status of an entire claim</t>
-  </si>
-  <si>
-    <t>Claim.extension.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5038,13 +5042,13 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -5095,7 +5099,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -5116,12 +5120,12 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -5192,7 +5196,7 @@
         <v>133</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>76</v>
@@ -5201,7 +5205,7 @@
         <v>134</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -5227,7 +5231,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -5253,13 +5257,13 @@
         <v>100</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -5267,7 +5271,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>76</v>
@@ -5309,7 +5313,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>84</v>
@@ -5335,7 +5339,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5358,13 +5362,13 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -5403,17 +5407,17 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -5439,10 +5443,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>76</v>
@@ -5464,13 +5468,13 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5497,11 +5501,11 @@
         <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>76</v>
@@ -5519,7 +5523,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -5548,7 +5552,7 @@
         <v>129</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>76</v>
@@ -5570,13 +5574,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5656,7 +5660,7 @@
         <v>129</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>76</v>
@@ -5678,13 +5682,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5764,7 +5768,7 @@
         <v>129</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>76</v>
@@ -5786,13 +5790,13 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5872,7 +5876,7 @@
         <v>129</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>76</v>
@@ -5894,13 +5898,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5980,7 +5984,7 @@
         <v>129</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>76</v>
@@ -6002,13 +6006,13 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -6088,7 +6092,7 @@
         <v>129</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>76</v>
@@ -6110,13 +6114,13 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -6196,7 +6200,7 @@
         <v>129</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>76</v>
@@ -6218,13 +6222,13 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -6301,11 +6305,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -6327,16 +6331,16 @@
         <v>130</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -6385,7 +6389,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -6411,11 +6415,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -6434,17 +6438,17 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -6493,7 +6497,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -6508,10 +6512,10 @@
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -6519,7 +6523,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6542,13 +6546,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6599,7 +6603,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -6620,16 +6624,16 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6651,13 +6655,13 @@
         <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6698,7 +6702,7 @@
         <v>133</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>76</v>
@@ -6707,7 +6711,7 @@
         <v>134</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -6728,12 +6732,12 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6759,16 +6763,16 @@
         <v>106</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -6793,13 +6797,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -6817,7 +6821,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -6838,12 +6842,12 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6866,19 +6870,19 @@
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -6903,11 +6907,11 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -6925,7 +6929,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -6946,12 +6950,12 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6977,16 +6981,16 @@
         <v>100</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -6999,7 +7003,7 @@
         <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>76</v>
@@ -7035,7 +7039,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -7056,12 +7060,12 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -7084,16 +7088,16 @@
         <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -7107,7 +7111,7 @@
         <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>76</v>
@@ -7143,7 +7147,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -7164,12 +7168,12 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -7192,13 +7196,13 @@
         <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -7249,7 +7253,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -7270,12 +7274,12 @@
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7298,16 +7302,16 @@
         <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -7357,7 +7361,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -7378,12 +7382,12 @@
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7409,16 +7413,16 @@
         <v>106</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>76</v>
@@ -7443,13 +7447,13 @@
         <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>76</v>
@@ -7467,7 +7471,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>84</v>
@@ -7482,10 +7486,10 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -7493,7 +7497,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7516,19 +7520,19 @@
         <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -7553,11 +7557,11 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -7575,7 +7579,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>84</v>
@@ -7593,7 +7597,7 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -7601,7 +7605,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7624,19 +7628,19 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -7661,11 +7665,11 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>76</v>
@@ -7683,7 +7687,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -7701,7 +7705,7 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -7709,7 +7713,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7735,14 +7739,14 @@
         <v>106</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -7767,13 +7771,13 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -7791,7 +7795,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>84</v>
@@ -7809,7 +7813,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -7817,7 +7821,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7840,17 +7844,17 @@
         <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -7899,7 +7903,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>84</v>
@@ -7914,10 +7918,10 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -7925,7 +7929,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7948,19 +7952,19 @@
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -8009,7 +8013,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -8027,7 +8031,7 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -8035,7 +8039,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8058,19 +8062,19 @@
         <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -8119,7 +8123,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>84</v>
@@ -8134,10 +8138,10 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -8145,7 +8149,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8168,17 +8172,17 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -8227,7 +8231,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -8245,7 +8249,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -8253,7 +8257,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8276,13 +8280,13 @@
         <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8333,7 +8337,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -8348,7 +8352,7 @@
         <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
@@ -8359,7 +8363,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8382,16 +8386,16 @@
         <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8441,7 +8445,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>84</v>
@@ -8456,10 +8460,10 @@
         <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -8467,7 +8471,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8490,19 +8494,19 @@
         <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -8527,13 +8531,13 @@
         <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>76</v>
@@ -8551,7 +8555,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>84</v>
@@ -8566,7 +8570,7 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
@@ -8577,11 +8581,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8600,19 +8604,19 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -8637,13 +8641,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -8661,7 +8665,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -8687,7 +8691,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8710,19 +8714,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -8771,7 +8775,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -8797,7 +8801,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8820,13 +8824,13 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8877,7 +8881,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -8898,16 +8902,16 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8929,13 +8933,13 @@
         <v>130</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8985,7 +8989,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -9006,16 +9010,16 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -9037,16 +9041,16 @@
         <v>130</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -9095,7 +9099,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -9121,7 +9125,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9144,17 +9148,17 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>76</v>
@@ -9203,7 +9207,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -9218,7 +9222,7 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
@@ -9229,7 +9233,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9252,19 +9256,19 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -9289,13 +9293,13 @@
         <v>76</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>76</v>
@@ -9313,7 +9317,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -9339,7 +9343,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9362,19 +9366,19 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -9423,7 +9427,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -9449,7 +9453,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9472,17 +9476,17 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -9531,7 +9535,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -9557,7 +9561,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9580,19 +9584,19 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -9641,7 +9645,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -9667,7 +9671,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9690,19 +9694,19 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -9751,7 +9755,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -9777,7 +9781,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9800,13 +9804,13 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9857,7 +9861,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -9878,16 +9882,16 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9909,13 +9913,13 @@
         <v>130</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9965,7 +9969,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -9986,16 +9990,16 @@
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -10017,16 +10021,16 @@
         <v>130</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -10075,7 +10079,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -10101,7 +10105,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10124,17 +10128,17 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -10159,13 +10163,13 @@
         <v>76</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -10183,7 +10187,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>84</v>
@@ -10209,7 +10213,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10232,19 +10236,19 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -10293,7 +10297,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -10319,7 +10323,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10342,19 +10346,19 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
@@ -10403,7 +10407,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -10421,7 +10425,7 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -10429,7 +10433,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10452,17 +10456,17 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -10511,7 +10515,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -10529,7 +10533,7 @@
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -10537,7 +10541,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10560,17 +10564,17 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -10619,7 +10623,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -10645,7 +10649,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10668,13 +10672,13 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10725,7 +10729,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -10746,16 +10750,16 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10777,13 +10781,13 @@
         <v>130</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10833,7 +10837,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
@@ -10854,16 +10858,16 @@
         <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10885,16 +10889,16 @@
         <v>130</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
@@ -10943,7 +10947,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -10969,7 +10973,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10992,17 +10996,17 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
@@ -11051,7 +11055,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>84</v>
@@ -11077,7 +11081,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11100,17 +11104,17 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
@@ -11159,7 +11163,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>84</v>
@@ -11177,7 +11181,7 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -11185,7 +11189,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11208,19 +11212,19 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -11269,7 +11273,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -11295,7 +11299,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11318,19 +11322,19 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>76</v>
@@ -11355,11 +11359,11 @@
         <v>76</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -11377,7 +11381,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -11403,7 +11407,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11426,17 +11430,17 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -11461,13 +11465,13 @@
         <v>76</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>76</v>
@@ -11485,7 +11489,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -11511,11 +11515,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11534,19 +11538,19 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>76</v>
@@ -11595,7 +11599,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -11610,7 +11614,7 @@
         <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
@@ -11621,7 +11625,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11644,13 +11648,13 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11701,7 +11705,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -11722,16 +11726,16 @@
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11753,13 +11757,13 @@
         <v>130</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11809,7 +11813,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -11830,16 +11834,16 @@
         <v>76</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11861,16 +11865,16 @@
         <v>130</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>76</v>
@@ -11919,7 +11923,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
@@ -11945,7 +11949,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11968,17 +11972,17 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -12027,7 +12031,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>84</v>
@@ -12053,7 +12057,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12076,19 +12080,19 @@
         <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>76</v>
@@ -12113,11 +12117,11 @@
         <v>76</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>76</v>
@@ -12135,7 +12139,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>84</v>
@@ -12161,7 +12165,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12184,17 +12188,17 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>76</v>
@@ -12219,11 +12223,11 @@
         <v>76</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>76</v>
@@ -12241,7 +12245,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -12267,7 +12271,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12290,13 +12294,13 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12347,7 +12351,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -12373,7 +12377,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12396,19 +12400,19 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>76</v>
@@ -12457,7 +12461,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -12483,7 +12487,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12506,19 +12510,19 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>76</v>
@@ -12543,13 +12547,13 @@
         <v>76</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>76</v>
@@ -12567,7 +12571,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -12593,7 +12597,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12616,17 +12620,17 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>76</v>
@@ -12675,7 +12679,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -12690,7 +12694,7 @@
         <v>97</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>76</v>
@@ -12701,7 +12705,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12724,13 +12728,13 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12781,7 +12785,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -12802,12 +12806,12 @@
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12885,7 +12889,7 @@
         <v>134</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -12911,10 +12915,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>76</v>
@@ -12936,13 +12940,13 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12993,7 +12997,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
@@ -13019,11 +13023,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13045,16 +13049,16 @@
         <v>130</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>76</v>
@@ -13103,7 +13107,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
@@ -13129,7 +13133,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13152,19 +13156,19 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>76</v>
@@ -13213,7 +13217,7 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>84</v>
@@ -13239,7 +13243,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13262,17 +13266,17 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>76</v>
@@ -13297,13 +13301,13 @@
         <v>76</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>76</v>
@@ -13321,7 +13325,7 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>84</v>
@@ -13347,7 +13351,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13370,19 +13374,19 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>76</v>
@@ -13407,13 +13411,13 @@
         <v>76</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>76</v>
@@ -13431,7 +13435,7 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
@@ -13457,7 +13461,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13480,17 +13484,17 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>76</v>
@@ -13515,13 +13519,13 @@
         <v>76</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>76</v>
@@ -13539,7 +13543,7 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
@@ -13565,7 +13569,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13588,19 +13592,19 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>76</v>
@@ -13625,13 +13629,13 @@
         <v>76</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>76</v>
@@ -13649,7 +13653,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
@@ -13675,7 +13679,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13698,17 +13702,17 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>76</v>
@@ -13757,7 +13761,7 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
@@ -13783,7 +13787,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13806,13 +13810,13 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13863,7 +13867,7 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -13884,12 +13888,12 @@
         <v>76</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13967,7 +13971,7 @@
         <v>134</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -13993,10 +13997,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>76</v>
@@ -14018,13 +14022,13 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -14075,7 +14079,7 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
@@ -14101,11 +14105,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14127,16 +14131,16 @@
         <v>130</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>76</v>
@@ -14185,7 +14189,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -14211,7 +14215,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14234,17 +14238,17 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>76</v>
@@ -14293,7 +14297,7 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>84</v>
@@ -14319,7 +14323,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14342,19 +14346,19 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>76</v>
@@ -14379,13 +14383,13 @@
         <v>76</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>76</v>
@@ -14403,7 +14407,7 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -14429,7 +14433,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14452,17 +14456,17 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>76</v>
@@ -14511,7 +14515,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -14537,7 +14541,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14560,17 +14564,17 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>76</v>
@@ -14595,13 +14599,13 @@
         <v>76</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>76</v>
@@ -14619,7 +14623,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>84</v>
@@ -14645,7 +14649,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14668,17 +14672,17 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>76</v>
@@ -14727,7 +14731,7 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -14753,7 +14757,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14776,19 +14780,19 @@
         <v>85</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>76</v>
@@ -14837,7 +14841,7 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>84</v>
@@ -14858,12 +14862,12 @@
         <v>76</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14886,13 +14890,13 @@
         <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14943,7 +14947,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -14964,12 +14968,12 @@
         <v>76</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15047,7 +15051,7 @@
         <v>134</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -15073,10 +15077,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>76</v>
@@ -15098,13 +15102,13 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15155,7 +15159,7 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -15181,10 +15185,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>76</v>
@@ -15206,13 +15210,13 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15263,7 +15267,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
@@ -15289,10 +15293,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>76</v>
@@ -15314,13 +15318,13 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15371,7 +15375,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>74</v>
@@ -15397,11 +15401,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15423,16 +15427,16 @@
         <v>130</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>76</v>
@@ -15481,7 +15485,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -15507,7 +15511,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15530,17 +15534,17 @@
         <v>85</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>76</v>
@@ -15589,7 +15593,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>84</v>
@@ -15615,7 +15619,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15638,19 +15642,19 @@
         <v>85</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>76</v>
@@ -15699,7 +15703,7 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>84</v>
@@ -15725,7 +15729,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15748,19 +15752,19 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>76</v>
@@ -15809,7 +15813,7 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -15824,10 +15828,10 @@
         <v>97</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>76</v>
@@ -15835,7 +15839,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15858,17 +15862,17 @@
         <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>76</v>
@@ -15917,7 +15921,7 @@
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>84</v>
@@ -15943,7 +15947,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15966,17 +15970,17 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>76</v>
@@ -16025,7 +16029,7 @@
         <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -16051,7 +16055,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16074,19 +16078,19 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>76</v>
@@ -16135,7 +16139,7 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -16161,7 +16165,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16184,19 +16188,19 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>76</v>
@@ -16245,7 +16249,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -16271,7 +16275,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16294,17 +16298,17 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>76</v>
@@ -16353,7 +16357,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>74</v>
@@ -16379,7 +16383,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16402,13 +16406,13 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -16459,7 +16463,7 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -16480,16 +16484,16 @@
         <v>76</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16511,13 +16515,13 @@
         <v>130</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -16567,7 +16571,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -16588,16 +16592,16 @@
         <v>76</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -16619,16 +16623,16 @@
         <v>130</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>76</v>
@@ -16677,7 +16681,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -16703,7 +16707,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16726,19 +16730,19 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>76</v>
@@ -16787,7 +16791,7 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>84</v>
@@ -16813,7 +16817,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16836,17 +16840,17 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>76</v>
@@ -16871,13 +16875,13 @@
         <v>76</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>76</v>
@@ -16895,7 +16899,7 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -16921,7 +16925,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16944,17 +16948,17 @@
         <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>76</v>
@@ -17003,7 +17007,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -17029,7 +17033,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17052,17 +17056,17 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
@@ -17111,7 +17115,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -17137,7 +17141,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17160,13 +17164,13 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -17217,7 +17221,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>74</v>
@@ -17238,12 +17242,12 @@
         <v>76</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17321,7 +17325,7 @@
         <v>134</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>74</v>
@@ -17347,10 +17351,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C133" t="s" s="2">
         <v>76</v>
@@ -17372,13 +17376,13 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -17429,7 +17433,7 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -17455,10 +17459,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C134" t="s" s="2">
         <v>76</v>
@@ -17480,13 +17484,13 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -17537,7 +17541,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
@@ -17563,10 +17567,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>76</v>
@@ -17588,13 +17592,13 @@
         <v>76</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -17645,7 +17649,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -17671,10 +17675,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>76</v>
@@ -17696,13 +17700,13 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -17753,7 +17757,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
@@ -17779,10 +17783,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>76</v>
@@ -17804,13 +17808,13 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -17861,7 +17865,7 @@
         <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
@@ -17887,10 +17891,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>76</v>
@@ -17912,13 +17916,13 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -17969,7 +17973,7 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
@@ -17995,11 +17999,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18021,16 +18025,16 @@
         <v>130</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>76</v>
@@ -18079,7 +18083,7 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
@@ -18105,7 +18109,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18128,17 +18132,17 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
@@ -18187,7 +18191,7 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>84</v>
@@ -18213,7 +18217,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18236,17 +18240,17 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>76</v>
@@ -18295,7 +18299,7 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
@@ -18321,7 +18325,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18344,17 +18348,17 @@
         <v>76</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>76</v>
@@ -18403,7 +18407,7 @@
         <v>76</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -18429,7 +18433,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18452,17 +18456,17 @@
         <v>76</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>76</v>
@@ -18511,7 +18515,7 @@
         <v>76</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -18537,7 +18541,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18560,17 +18564,17 @@
         <v>76</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>76</v>
@@ -18619,7 +18623,7 @@
         <v>76</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>74</v>
@@ -18645,7 +18649,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18668,17 +18672,17 @@
         <v>76</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>76</v>
@@ -18703,13 +18707,13 @@
         <v>76</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>76</v>
@@ -18727,7 +18731,7 @@
         <v>76</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
@@ -18753,7 +18757,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18776,19 +18780,19 @@
         <v>76</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>76</v>
@@ -18813,13 +18817,13 @@
         <v>76</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>76</v>
@@ -18837,7 +18841,7 @@
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>74</v>
@@ -18863,11 +18867,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -18886,19 +18890,19 @@
         <v>76</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>76</v>
@@ -18923,11 +18927,11 @@
         <v>76</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X147" s="2"/>
       <c r="Y147" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>76</v>
@@ -18945,7 +18949,7 @@
         <v>76</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>84</v>
@@ -18971,7 +18975,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18994,19 +18998,19 @@
         <v>76</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>76</v>
@@ -19031,13 +19035,13 @@
         <v>76</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>76</v>
@@ -19055,7 +19059,7 @@
         <v>76</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>74</v>
@@ -19081,7 +19085,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19104,19 +19108,19 @@
         <v>76</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>76</v>
@@ -19141,13 +19145,13 @@
         <v>76</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>76</v>
@@ -19165,7 +19169,7 @@
         <v>76</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>74</v>
@@ -19191,7 +19195,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19214,17 +19218,17 @@
         <v>76</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>76</v>
@@ -19273,7 +19277,7 @@
         <v>76</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
@@ -19291,7 +19295,7 @@
         <v>76</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>76</v>
@@ -19299,7 +19303,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19322,17 +19326,17 @@
         <v>76</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>76</v>
@@ -19357,13 +19361,13 @@
         <v>76</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>76</v>
@@ -19381,7 +19385,7 @@
         <v>76</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>74</v>
@@ -19399,7 +19403,7 @@
         <v>76</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>76</v>
@@ -19407,7 +19411,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19430,17 +19434,17 @@
         <v>76</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>76</v>
@@ -19489,7 +19493,7 @@
         <v>76</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>74</v>
@@ -19515,7 +19519,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19538,13 +19542,13 @@
         <v>76</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -19595,7 +19599,7 @@
         <v>76</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
@@ -19616,16 +19620,16 @@
         <v>76</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -19647,13 +19651,13 @@
         <v>130</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -19694,7 +19698,7 @@
         <v>133</v>
       </c>
       <c r="AB154" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC154" t="s" s="2">
         <v>76</v>
@@ -19703,7 +19707,7 @@
         <v>134</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
@@ -19724,15 +19728,15 @@
         <v>76</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>76</v>
@@ -19754,13 +19758,13 @@
         <v>76</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -19811,7 +19815,7 @@
         <v>76</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>74</v>
@@ -19837,7 +19841,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19860,19 +19864,19 @@
         <v>85</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>76</v>
@@ -19921,7 +19925,7 @@
         <v>76</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
@@ -19942,12 +19946,12 @@
         <v>76</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19973,20 +19977,20 @@
         <v>106</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P157" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Q157" t="s" s="2">
         <v>76</v>
@@ -20007,13 +20011,13 @@
         <v>76</v>
       </c>
       <c r="W157" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>76</v>
@@ -20031,7 +20035,7 @@
         <v>76</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>74</v>
@@ -20052,12 +20056,12 @@
         <v>76</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20080,17 +20084,17 @@
         <v>85</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>76</v>
@@ -20139,7 +20143,7 @@
         <v>76</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>74</v>
@@ -20160,12 +20164,12 @@
         <v>76</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20191,14 +20195,14 @@
         <v>100</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>76</v>
@@ -20247,7 +20251,7 @@
         <v>76</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
@@ -20256,7 +20260,7 @@
         <v>84</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>97</v>
@@ -20268,12 +20272,12 @@
         <v>76</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20299,16 +20303,16 @@
         <v>106</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>76</v>
@@ -20357,7 +20361,7 @@
         <v>76</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>74</v>
@@ -20378,12 +20382,12 @@
         <v>76</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20406,17 +20410,17 @@
         <v>76</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>76</v>
@@ -20465,7 +20469,7 @@
         <v>76</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>74</v>
@@ -20491,7 +20495,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20514,19 +20518,19 @@
         <v>76</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>76</v>
@@ -20575,7 +20579,7 @@
         <v>76</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>74</v>
@@ -20601,7 +20605,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20624,19 +20628,19 @@
         <v>76</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>76</v>
@@ -20685,7 +20689,7 @@
         <v>76</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>74</v>
@@ -20711,7 +20715,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20734,17 +20738,17 @@
         <v>76</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>76</v>
@@ -20793,7 +20797,7 @@
         <v>76</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>74</v>
@@ -20819,7 +20823,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20842,19 +20846,19 @@
         <v>76</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>76</v>
@@ -20879,13 +20883,13 @@
         <v>76</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>76</v>
@@ -20903,7 +20907,7 @@
         <v>76</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>74</v>
@@ -20929,7 +20933,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20952,17 +20956,17 @@
         <v>76</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>76</v>
@@ -20987,13 +20991,13 @@
         <v>76</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>76</v>
@@ -21011,7 +21015,7 @@
         <v>76</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>74</v>
@@ -21037,7 +21041,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21060,19 +21064,19 @@
         <v>76</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>76</v>
@@ -21121,7 +21125,7 @@
         <v>76</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>74</v>
@@ -21136,7 +21140,7 @@
         <v>97</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>76</v>
@@ -21147,7 +21151,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21170,17 +21174,17 @@
         <v>76</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>76</v>
@@ -21229,7 +21233,7 @@
         <v>76</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>74</v>
@@ -21255,7 +21259,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21278,13 +21282,13 @@
         <v>76</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -21335,7 +21339,7 @@
         <v>76</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>74</v>
@@ -21356,12 +21360,12 @@
         <v>76</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21439,7 +21443,7 @@
         <v>134</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>74</v>
@@ -21465,10 +21469,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>76</v>
@@ -21490,13 +21494,13 @@
         <v>76</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -21547,7 +21551,7 @@
         <v>76</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>74</v>
@@ -21573,11 +21577,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -21599,16 +21603,16 @@
         <v>130</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>76</v>
@@ -21657,7 +21661,7 @@
         <v>76</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>74</v>
@@ -21683,7 +21687,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21706,17 +21710,17 @@
         <v>76</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>76</v>
@@ -21765,7 +21769,7 @@
         <v>76</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>84</v>
@@ -21791,7 +21795,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21814,17 +21818,17 @@
         <v>76</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>76</v>
@@ -21849,13 +21853,13 @@
         <v>76</v>
       </c>
       <c r="W174" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>76</v>
@@ -21873,7 +21877,7 @@
         <v>76</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>74</v>
@@ -21899,7 +21903,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21922,19 +21926,19 @@
         <v>76</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>76</v>
@@ -21959,13 +21963,13 @@
         <v>76</v>
       </c>
       <c r="W175" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>76</v>
@@ -21983,7 +21987,7 @@
         <v>76</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>74</v>
@@ -22009,11 +22013,11 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22032,19 +22036,19 @@
         <v>76</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>76</v>
@@ -22069,11 +22073,11 @@
         <v>76</v>
       </c>
       <c r="W176" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X176" s="2"/>
       <c r="Y176" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Z176" t="s" s="2">
         <v>76</v>
@@ -22091,7 +22095,7 @@
         <v>76</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>84</v>
@@ -22117,7 +22121,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22140,19 +22144,19 @@
         <v>76</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>76</v>
@@ -22177,13 +22181,13 @@
         <v>76</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>76</v>
@@ -22201,7 +22205,7 @@
         <v>76</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>74</v>
@@ -22227,7 +22231,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22250,19 +22254,19 @@
         <v>76</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>76</v>
@@ -22287,13 +22291,13 @@
         <v>76</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>76</v>
@@ -22311,7 +22315,7 @@
         <v>76</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>74</v>
@@ -22337,7 +22341,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22360,17 +22364,17 @@
         <v>76</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>76</v>
@@ -22419,7 +22423,7 @@
         <v>76</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>74</v>
@@ -22445,7 +22449,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22468,17 +22472,17 @@
         <v>76</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>76</v>
@@ -22527,7 +22531,7 @@
         <v>76</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>74</v>
@@ -22553,7 +22557,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22576,19 +22580,19 @@
         <v>76</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>76</v>
@@ -22637,7 +22641,7 @@
         <v>76</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>74</v>
@@ -22663,7 +22667,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -22686,19 +22690,19 @@
         <v>76</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>76</v>
@@ -22747,7 +22751,7 @@
         <v>76</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>74</v>
@@ -22773,7 +22777,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -22796,17 +22800,17 @@
         <v>76</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>76</v>
@@ -22855,7 +22859,7 @@
         <v>76</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>74</v>
@@ -22881,7 +22885,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -22904,17 +22908,17 @@
         <v>76</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>76</v>
@@ -22963,7 +22967,7 @@
         <v>76</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>74</v>
@@ -22989,7 +22993,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23012,13 +23016,13 @@
         <v>76</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
@@ -23069,7 +23073,7 @@
         <v>76</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>74</v>
@@ -23090,16 +23094,16 @@
         <v>76</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -23121,13 +23125,13 @@
         <v>130</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23177,7 +23181,7 @@
         <v>76</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>74</v>
@@ -23198,16 +23202,16 @@
         <v>76</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -23229,16 +23233,16 @@
         <v>130</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>76</v>
@@ -23287,7 +23291,7 @@
         <v>76</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>74</v>
@@ -23313,7 +23317,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23336,17 +23340,17 @@
         <v>76</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>76</v>
@@ -23395,7 +23399,7 @@
         <v>76</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>84</v>
@@ -23421,7 +23425,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23444,17 +23448,17 @@
         <v>76</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>76</v>
@@ -23479,13 +23483,13 @@
         <v>76</v>
       </c>
       <c r="W189" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>76</v>
@@ -23503,7 +23507,7 @@
         <v>76</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>74</v>
@@ -23529,7 +23533,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23552,19 +23556,19 @@
         <v>76</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>76</v>
@@ -23589,13 +23593,13 @@
         <v>76</v>
       </c>
       <c r="W190" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Z190" t="s" s="2">
         <v>76</v>
@@ -23613,7 +23617,7 @@
         <v>76</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>74</v>
@@ -23639,7 +23643,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -23662,19 +23666,19 @@
         <v>76</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>76</v>
@@ -23699,31 +23703,31 @@
         <v>76</v>
       </c>
       <c r="W191" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X191" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE191" t="s" s="2">
         <v>861</v>
-      </c>
-      <c r="Y191" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="Z191" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA191" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB191" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC191" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD191" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE191" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>84</v>
@@ -23749,7 +23753,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23772,19 +23776,19 @@
         <v>76</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>76</v>
@@ -23809,13 +23813,13 @@
         <v>76</v>
       </c>
       <c r="W192" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>76</v>
@@ -23833,7 +23837,7 @@
         <v>76</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>74</v>
@@ -23859,7 +23863,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -23882,19 +23886,19 @@
         <v>76</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>76</v>
@@ -23919,13 +23923,13 @@
         <v>76</v>
       </c>
       <c r="W193" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>76</v>
@@ -23943,7 +23947,7 @@
         <v>76</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>74</v>
@@ -23969,7 +23973,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23992,17 +23996,17 @@
         <v>76</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>76</v>
@@ -24051,7 +24055,7 @@
         <v>76</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>74</v>
@@ -24077,7 +24081,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24100,17 +24104,17 @@
         <v>76</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>76</v>
@@ -24159,7 +24163,7 @@
         <v>76</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>74</v>
@@ -24185,7 +24189,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24208,19 +24212,19 @@
         <v>76</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>76</v>
@@ -24269,7 +24273,7 @@
         <v>76</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>74</v>
@@ -24295,7 +24299,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -24318,19 +24322,19 @@
         <v>76</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>76</v>
@@ -24379,7 +24383,7 @@
         <v>76</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>74</v>
@@ -24405,7 +24409,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -24428,17 +24432,17 @@
         <v>76</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>76</v>
@@ -24487,7 +24491,7 @@
         <v>76</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>74</v>
@@ -24513,7 +24517,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -24536,17 +24540,17 @@
         <v>76</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>76</v>
@@ -24595,7 +24599,7 @@
         <v>76</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>74</v>
